--- a/data/genius_Bushido_Sonny-black.xlsx
+++ b/data/genius_Bushido_Sonny-black.xlsx
@@ -407,9 +407,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Hook]Wenn der Benz anspringt und die Reifen wieder qualmenBin ich auf der Jagd nach euch FotzenUnd ich find' euch fetten Schweine überallIch bin wieder auf der Jagd nach euch FotzenWenn der Benz anspringt und die Reifen wieder qualmenBin ich auf der Jagd nach euch FotzenUnd ich find' euch fetten Schweine überallIch bin wieder auf der Jagd nach euch Fotzen[Part 1]Ich mach Schlagzeilen, Staatsfeind Nr. 1Von euch Arschgeigen unerreicht, keiner von euch Hunden beißtDu Justin Bieber, bei mir klingeln die Kassen wiederKing of Kings, weil ich keinen von euch Spasten featureIch bin Einzelgänger, wir sind reiche MännerKing Bushido macht die Scheiße schon ein Weilchen längerKleine Schwuchtel mit dei'm UnterlippenpiercingEin falsches Wort und deine Zunge spürt RasierklingenGuck mich an, ich mach Berlin wieder hart, NutteElectro Ghetto Rap in deinen Arsch, NutteGTA Vice CityUnd jetzt erhäng' ich Y-Titty, ihr scheiß HippiesIch bin hochkarätig, großes Ego, großer PenisEs gibt kein Happy End, fick deine ExistenzFick deine Baggy Pants und deine Missgeburten-GangWenn ich komme, könnt ihr Wichser nur noch rennen
-[Hook]Wenn der Benz anspringt und die Reifen wieder qualmenBin ich auf der Jagd nach euch FotzenUnd ich find' euch fetten Schweine überallIch bin wieder auf der Jagd nach euch FotzenWenn der Benz anspringt und die Reifen wieder qualmenBin ich auf der Jagd nach euch FotzenUnd ich find' euch fetten Schweine überallIch bin wieder auf der Jagd nach euch Fotzen[Part 2]Du kleiner Hurensohn, fick deine SchulnotenFriss meine Schuhsohlen, leck meine Spucke jetzt vom FußbodenKuck mal, wie ich Schläger zu The Dome schickeFür Culcha Candela, diese Hurensohn-CliqueYeah, was für Ghostwriter? Bin vernetzt wie ein ProviderUnd mich schnappt auch kein ProfilerIch bin alles, wovor Deutschland Paranoia hatMultimillionär, Gangster geben keine Steuern abEs geht um Geld, wenn ich im Helikopter landeErsguterjunge, ich bin Labelboss, du SchlampeKomm her und du frisst Dreck, deine fette MutterIsst jetzt Big Mac mit Beck's SixpackFick deinen DisstrackIch bin King und ihr klebt mir am Schwanz so wie BlistexUnd wenn die Sonne untergeht, dann komm ich aus meiner Höhle rausUnd lauer' diesen Hurensöhnen auf
-[Hook]Wenn der Benz anspringt und die Reifen wieder qualmenBin ich auf der Jagd nach euch FotzenUnd ich find' euch fetten Schweine überallIch bin wieder auf der Jagd nach euch FotzenWenn der Benz anspringt und die Reifen wieder qualmenBin ich auf der Jagd nach euch FotzenUnd ich find' euch fetten Schweine überallIch bin wieder auf der Jagd nach euch Fotzen</t>
+          <t>[Hook]
+Wenn der Benz anspringt und die Reifen wieder qualmen
+Bin ich auf der Jagd nach euch Fotzen
+Und ich find' euch fetten Schweine überall
+Ich bin wieder auf der Jagd nach euch Fotzen
+Wenn der Benz anspringt und die Reifen wieder qualmen
+Bin ich auf der Jagd nach euch Fotzen
+Und ich find' euch fetten Schweine überall
+Ich bin wieder auf der Jagd nach euch Fotzen
+[Part 1]
+Ich mach Schlagzeilen, Staatsfeind Nr. 1
+Von euch Arschgeigen unerreicht, keiner von euch Hunden beißt
+Du Justin Bieber,bei mir klingeln die Kassen wieder
+King of Kings, weil ich keinen von euch Spasten feature
+Ich bin Einzelgänger, wir sind reiche Männer
+King Bushido macht die Scheiße schon ein Weilchen länger
+Kleine Schwuchtel mit dei'm Unterlippenpiercing
+Ein falsches Wort und deine Zunge spürt Rasierklingen
+Guck mich an, ich mach Berlin wieder hart, Nutte
+Electro Ghetto Rap in deinen Arsch, Nutte
+GTA Vice City
+Und jetzt erhäng' ich Y-Titty, ihr scheiß Hippies
+Ich bin hochkarätig, großes Ego, großer Penis
+Es gibt kein Happy End, fick deine Existenz
+Fick deine Baggy Pants und deine Missgeburten-Gang
+Wenn ich komme, könnt ihr Wichser nur noch rennen
+[Hook]
+Wenn der Benz anspringt und die Reifen wieder qualmen
+Bin ich auf der Jagd nach euch Fotzen
+Und ich find' euch fetten Schweine überall
+Ich bin wieder auf der Jagd nach euch Fotzen
+Wenn der Benz anspringt und die Reifen wieder qualmen
+Bin ich auf der Jagd nach euch Fotzen
+Und ich find' euch fetten Schweine überall
+Ich bin wieder auf der Jagd nach euch Fotzen
+[Part 2]
+Du kleiner Hurensohn, fick deine Schulnoten
+Friss meine Schuhsohlen, leck meine Spucke jetzt vom Fußboden
+Kuck mal, wie ich Schläger zu The Dome schickeFür Culcha Candela, diese Hurensohn-Clique
+Yeah, was für Ghostwriter?Bin vernetzt wie ein Provider
+Und mich schnappt auch kein Profiler
+Ich bin alles, wovor Deutschland Paranoia hatMultimillionär, Gangster geben keine Steuern ab
+Es geht um Geld, wenn ich im Helikopter lande
+Ersguterjunge, ich bin Labelboss, du Schlampe
+Komm her und du frisst Dreck,deine fette MutterIsst jetzt Big Mac mit Beck's Sixpack
+Fick deinen Disstrack
+Ich bin King und ihr klebt mir am Schwanz so wie Blistex
+Und wenn die Sonne untergeht, dann komm ich aus meiner Höhle raus
+Und lauer' diesen Hurensöhnen auf
+[Hook]
+Wenn der Benz anspringt und die Reifen wieder qualmen
+Bin ich auf der Jagd nach euch Fotzen
+Und ich find' euch fetten Schweine überall
+Ich bin wieder auf der Jagd nach euch Fotzen
+Wenn der Benz anspringt und die Reifen wieder qualmen
+Bin ich auf der Jagd nach euch Fotzen
+Und ich find' euch fetten Schweine überall
+Ich bin wieder auf der Jagd nach euch Fotzen</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -461,9 +516,63 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Songtext zu „Jeder meiner Freunde“][Part 1]Yeah, es ist Sonny Black, deutscher Rap hat AngstDenn ich komm zurück und nehm dir deine Freundin weg, du SchwanzIch bin immer noch der Chef, hart wie GranitMeine Stadt ist auch bei Tag Anthrazit, Westberlin, Nutte!Deine reichen Bastard-Eltern essen MuschelnIch komm in deine Uni und ruf "Ihr seid alle Schwuchteln!"Yeah, es ist Tempelhof, Schöneberg, GangsterflowDu willst gerne meine Stadt erkunden? Hier ist EndstationIch trag Cordon Sport, Carlo Colucci, ShoxDer vor dem Gucci-Shop ein paar Touris boxtNutte, halt die Fresse wenn der King rapptEs ist Deep Impact, ich klatsch dich an die Wand wie ein Insekt (Yeah)Deine schwule Clique hängt im BierzeltIch bau mir eine Villa und die Teppiche sind TierfellUnd mich zu dissen grenzt an BlasphemieIch komm zum Aprés Ski und kacke in dein Bier, guten Appetit[Hook]Du machst Welle vor den Kids, schiebst 'nen Harten für die LeuteJeder meiner Freunde fickt jeden deiner FreundeWir kommen, wenn du Fotze schläfst und rauben deine TräumeJeder meiner Freunde fickt jeden deiner FreundeDie Straßen sind in meiner Hand, ihr klettert auf die BäumeJeder meiner Freunde fickt jeden deiner FreundeDu willst diskutieren, doch ich kenne keine ReueJeder meiner Freunde fickt jeden deiner Freunde
-[Part 2]Sonny Black, der Ruler, und dein Vater ist ein SchwulerIch häng' in den Straßen ab und ticke weißes PuderYeah, meine Läufer transportieren meinen StoffIn den Mopeds, Übergabe: Ovest, SchlüterstraßeIch vertick' an reiche Russen MillionärstöchterLiefer Junkies Heroin in ihre ErdlöcherJeder kennt heute jede Menge LeuteDoch jeder meiner Freunde fickt jeden deiner FreundeCarlo Kokain Flow, hallo, Mr. KripoDein Schwanz ist ein Fischstäbchen du Käpt'n IgloDein schwuler Vater lutscht für einen Zehner wie ein JunkieNenn mir scheißegal welches Thema, ich bin antiDu Bastard, bring mir Pasta... mit MascarponeWer nimmt dich ernst mit deinem Haarschnitt, du KatastropheKeine Platzpatronen, ich komm mit BrecheisenBesser ist, du gehst dich selber wegschmeißen, Nutte[Hook]Du machst Welle vor den Kids, schiebst 'nen Harten für die LeuteJeder meiner Freunde fickt jeden deiner FreundeWir kommen, wenn du Fotze schläfst und rauben deine TräumeJeder meiner Freunde fickt jeden deiner FreundeDie Straßen sind in meiner Hand, ihr klettert auf die BäumeJeder meiner Freunde fickt jeden deiner FreundeDu willst diskutieren, doch ich kenne keine ReueJeder meiner Freunde fickt jeden deiner Freunde
-[Outro mit Scratches]I'm about to toss a couple of shotsThe street life is the only life I knowWho has to recognize, I'm keeping it cleanSo you should expect...I'm about to toss a couple of shotsThe street life is the only life I knowShotgun slammin in your chestpiece, plow!We're gonna rock this motherfucker like three the hard way</t>
+          <t>[Songtext zu „Jeder meiner Freunde“]
+[Part 1]
+Yeah, es ist Sonny Black, deutscher Rap hat AngstDenn ich komm zurück und nehm dir deine Freundin weg, du Schwanz
+Ich bin immer noch der Chef, hart wie Granit
+Meine Stadt ist auch bei Tag Anthrazit, Westberlin, Nutte!
+Deine reichen Bastard-Eltern essen Muscheln
+Ich komm in deine Uni und ruf "Ihr seid alle Schwuchteln!"
+Yeah, es ist Tempelhof, Schöneberg, GangsterflowDu willst gerne meine Stadt erkunden? Hier ist Endstation
+Ich trag Cordon Sport,Carlo Colucci,Shox
+Der vor dem Gucci-Shop ein paar Touris boxt
+Nutte, halt die Fresse wenn der King rappt
+Es ist Deep Impact, ich klatsch dich an die Wand wie ein Insekt (Yeah)
+Deine schwule Clique hängt im Bierzelt
+Ich bau mir eine Villa und die Teppiche sind Tierfell
+Und mich zu dissen grenzt an Blasphemie
+Ich komm zum Aprés Ski und kacke in dein Bier, guten Appetit
+[Hook]
+Du machst Welle vor den Kids, schiebst 'nen Harten für die Leute
+Jeder meiner Freunde fickt jeden deiner Freunde
+Wir kommen, wenn du Fotze schläfst und rauben deine Träume
+Jeder meiner Freunde fickt jeden deiner Freunde
+Die Straßen sind in meiner Hand, ihr klettert auf die Bäume
+Jeder meiner Freunde fickt jeden deiner Freunde
+Du willst diskutieren, doch ich kenne keine Reue
+Jeder meiner Freunde fickt jeden deiner Freunde
+[Part 2]
+Sonny Black, der Ruler, und dein Vater ist ein Schwuler
+Ich häng' in den Straßen ab und ticke weißes Puder
+Yeah, meine Läufer transportieren meinen StoffIn den Mopeds,Übergabe: Ovest, Schlüterstraße
+Ich vertick' an reiche Russen Millionärstöchter
+Liefer Junkies Heroin in ihre Erdlöcher
+Jeder kennt heute jede Menge Leute
+Doch jeder meiner Freunde fickt jeden deiner Freunde
+Carlo Kokain Flow,hallo, Mr. Kripo
+Dein Schwanz ist ein Fischstäbchen du Käpt'n Iglo
+Dein schwuler Vater lutscht für einen Zehner wie ein Junkie
+Nenn mir scheißegal welches Thema, ich bin anti
+Du Bastard, bring mir Pasta... mit Mascarpone
+Wer nimmt dich ernst mit deinem Haarschnitt, du Katastrophe
+Keine Platzpatronen, ich komm mit BrecheisenBesser ist, du gehst dich selber wegschmeißen, Nutte
+[Hook]
+Du machst Welle vor den Kids, schiebst 'nen Harten für die Leute
+Jeder meiner Freunde fickt jeden deiner Freunde
+Wir kommen, wenn du Fotze schläfst und rauben deine Träume
+Jeder meiner Freunde fickt jeden deiner Freunde
+Die Straßen sind in meiner Hand, ihr klettert auf die Bäume
+Jeder meiner Freunde fickt jeden deiner Freunde
+Du willst diskutieren, doch ich kenne keine Reue
+Jeder meiner Freunde fickt jeden deiner Freunde
+[Outro mit Scratches]
+I'm about to toss a couple of shots
+The street life is the only life I know
+Who has to recognize, I'm keeping it clean
+So you should expect...
+I'm about to toss a couple of shots
+The street life is the only life I knowShotgun slammin in your chestpiece, plow!
+We're gonna rock this motherfucker like three the hard way</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -515,9 +624,76 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Hook]Ich hab nachgeladenSchüsse aus dem schwarzen WagenUnd du Fotze liegst im StraßengrabenAlles kommt zurück, Life is LifeDu bist gefickt wenn der Haifisch beißtYeah, Yeah, YeahIch hab nachgeladenSchüsse aus dem schwarzen WagenUnd du Fotze liegst im StraßengrabenAlles kommt zurück, Life is LifeDu bist gefickt wenn der Haifisch beißtYeah, Yeah, Yeah[Part 1]Kleinmachnow EigenheimFick nicht mit dem weißen HaiHoffentlich erstickt dein fetter Vater an sei'm SchweinefleischErstickt an seinem DosenbierDer Jürgen Klopp in BirkenstockLustig, lustig, wenn ich ihm sein Maul mit meinem Gürtel stopf'Ich ficke dich, du Torch-KopieRache ist mein MordmotivKay hat von Fernanda so 'nen überkrassen Korb gekriegtYeah, ich lass dich Scheiße fressenLass deine Mutter meine Eichel leckenUnd dein Vater schwitzt an den GeheimratseckenWillkommen im Haifischbecken, ihr seid alle kleine FischeMeine Sippe kommt und wir zersägen euch in EinzelstückeJa, ich bin noch immer asozial und primitiv auf TilidinBrech dir deine Knochen durch die Skinny Jeans
-[Hook]Ich hab nachgeladenSchüsse aus dem schwarzen WagenUnd du Fotze liegst im StraßengrabenAlles kommt zurück, Life is LifeDu bist gefickt wenn der Haifisch beißtYeah, Yeah, YeahIch hab nachgeladenSchüsse aus dem schwarzen WagenUnd du Fotze liegst im StraßengrabenAlles kommt zurück, Life is LifeDu bist gefickt wenn der Haifisch beißtYeah, Yeah, Yeah[Part 2]Berlin ist mein HauptquartierDu Schwuchtel wirst hier ausradiertDu Drecksbulle bist außer dirBestell' mich bloß nicht auf's RevierIch hab kein' Respekt, vor niemandSummen, die ich mache sind so exorbitantAlter, spiel hier nicht den Superheld, du Bruce DarnellDu kannst dich nicht mit mir auf eine Stufe stellenMein Grundstück ist noch größer als ein FußballfeldEin Kanacke schafft es raus aus dem BlockUnd schon stellen sie sein Haus auf den KopfIch bin allen hier 'nen Schritt vorausHab' gestern schon gewusst, was heut' passiertAber nicht, dass diese Schwuchteln uns're Mucke boykottierenMan, ich bin nicht euer durchschnittlicher deutscher MustermannLeg dich mit mir an, dann landest du im Zeugenschutzprogramm
-[Hook]Ich hab nachgeladenSchüsse aus dem schwarzen WagenUnd du Fotze liegst im StraßengrabenAlles kommt zurück, Life is LifeDu bist gefickt wenn der Haifisch beißtYeah, Yeah, YeahIch hab nachgeladenSchüsse aus dem schwarzen WagenUnd du Fotze liegst im StraßengrabenAlles kommt zurück, Life is LifeDu bist gefickt wenn der Haifisch beißtYeah, Yeah, Yeah</t>
+          <t>[Hook]
+Ich hab nachgeladen
+Schüsse aus dem schwarzen Wagen
+Und du Fotze liegst im Straßengraben
+Alles kommt zurück, Life is Life
+Du bist gefickt wenn der Haifisch beißt
+Yeah, Yeah, Yeah
+Ich hab nachgeladen
+Schüsse aus dem schwarzen Wagen
+Und du Fotze liegst im Straßengraben
+Alles kommt zurück, Life is Life
+Du bist gefickt wenn der Haifisch beißt
+Yeah, Yeah, Yeah
+[Part 1]
+Kleinmachnow Eigenheim
+Fick nicht mit dem weißen Hai
+Hoffentlich erstickt dein fetter Vater an sei'm Schweinefleisch
+Erstickt an seinem Dosenbier
+Der Jürgen Klopp in BirkenstockLustig, lustig, wenn ich ihm sein Maul mit meinem Gürtel stopf'
+Ich ficke dich, du Torch-Kopie
+Rache ist mein Mordmotiv
+Kay hat von Fernanda so 'nen überkrassen Korb gekriegt
+Yeah, ich lass dich Scheiße fressen
+Lass deine Mutter meine Eichel lecken
+Und dein Vater schwitzt an den Geheimratsecken
+Willkommen im Haifischbecken, ihr seid alle kleine Fische
+Meine Sippe kommt und wir zersägen euch in Einzelstücke
+Ja, ich bin noch immer asozial und primitiv auf Tilidin
+Brech dir deine Knochen durch die Skinny Jeans
+[Hook]
+Ich hab nachgeladen
+Schüsse aus dem schwarzen Wagen
+Und du Fotze liegst im Straßengraben
+Alles kommt zurück, Life is Life
+Du bist gefickt wenn der Haifisch beißt
+Yeah, Yeah, Yeah
+Ich hab nachgeladen
+Schüsse aus dem schwarzen Wagen
+Und du Fotze liegst im Straßengraben
+Alles kommt zurück, Life is Life
+Du bist gefickt wenn der Haifisch beißt
+Yeah, Yeah, Yeah
+[Part 2]
+Berlin ist mein Hauptquartier
+Du Schwuchtel wirst hier ausradiert
+Du Drecksbulle bist außer dir
+Bestell' mich bloß nicht auf's Revier
+Ich hab kein' Respekt, vor niemand
+Summen, die ich mache sind so exorbitant
+Alter, spiel hier nicht den Superheld, du Bruce DarnellDu kannst dich nicht mit mir auf eine Stufe stellen
+Mein Grundstück ist noch größer als ein Fußballfeld
+Ein Kanacke schafft es raus aus dem BlockUnd schon stellen sie sein Haus auf den Kopf
+Ich bin allen hier 'nen Schritt voraus
+Hab' gestern schon gewusst, was heut' passiert
+Aber nicht, dass diese Schwuchteln uns're Mucke boykottieren
+Man, ich bin nicht euer durchschnittlicher deutscher Mustermann
+Leg dich mit mir an, dann landest du im Zeugenschutzprogramm
+[Hook]
+Ich hab nachgeladen
+Schüsse aus dem schwarzen Wagen
+Und du Fotze liegst im Straßengraben
+Alles kommt zurück, Life is Life
+Du bist gefickt wenn der Haifisch beißt
+Yeah, Yeah, Yeah
+Ich hab nachgeladen
+Schüsse aus dem schwarzen Wagen
+Und du Fotze liegst im Straßengraben
+Alles kommt zurück, Life is Life
+Du bist gefickt wenn der Haifisch beißt
+Yeah, Yeah, Yeah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -569,10 +745,85 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Intro]Yeah, ah[Verse 1]Fick dein Tanktop, Sonny macht den Bank JobKay wird gefickt - Es ist one night in BangkokVan Damme - Streetfighter, was ist los jetzt, du FreestylerWenn ich komme rappst du auf den Knien weiterEs ist mitten in der Nacht, ich bin draußenDeutschrap hat schwarzes Haar und dunkelbraune AugenSag, was willst du Opfer machen, wenn ich zu 'nem Wolf mutier?Ich fick deine Mutter und dein Vater hängt beim GolfturnierS-O-N-N, Nutte, es ist GangbangIch bin Einzelgänger und mach nicht auf Wu-Tang-ClanDer Lonesome Rider, kleiner HosenscheißerDu hast höchstens große Eier in deinem ForeneintragIch bin Sonny Black, ich stehe meinen MannKämpfst du gegen mich, kämpfst du gegen eine WandGuck die Ghettokids, sie nehmen meine Lebensweise anDeine Mutter ist ne Hure, weil sie Hefeweizen tankt[Hook]Es ist mitten in der Nacht, du hast Angst in BerlinIch schluck Tilidin und Amphetamin, yeahHalt die Fresse, Junge guck auf den BodenUm Typen so wie mich machst du lieber einen Bogen, NutteEs ist mitten in der Nacht, du hast Angst in BerlinIch schluck Tilidin und Amphetamin, yeahHalt die Fresse, Junge guck auf den BodenUm Typen so wie mich machst du lieber einen Bogen, Nutte
-[Verse 2]Es ist 2014, Pöbelei via TwitterDu schwuler Spast singst immer noch 'Cry me a river'Ich komm' aus der Stadt mit den Tags an den WändenDie letzten echten Cowboys - WesternlegendenTicker von der Hasenheide, und du wechselst jetzt die StraßenseiteDenn ich bin nicht deine KragenweiteKung-Fu-Fighter, Mund zu KleinerDie Straßen sind Mein, auch ohne Grundbucheintrag, yeahWie ich Takt für Takt deine Mama bumsDein Vater ist noch immer blau, nenn' ihn Papa SchlumpfDu kleiner Bastard küsst die HochhauswandDenn hier gibt es keinen Notausgang - Rest In Peace, NutteBrandneue Airmax, Zahnstocher sitztIch mach Probleme wie der NahostkonfliktUnd mir ist scheißegal, ob du ein Hardrocker bistIn Berlin wird dein Arschloch gefickt, yeah[Hook]Es ist mitten in der Nacht, du hast Angst in BerlinIch schluck Tilidin und Amphetamin, yeahHalt die Fresse, Junge guck auf den BodenUm Typen so wie mich machst du lieber einen Bogen, NutteEs ist mitten in der Nacht, du hast Angst in BerlinIch schluck Tilidin und Amphetamin, yeahHalt die Fresse, Junge guck auf den BodenUm Typen so wie mich machst du lieber einen Bogen, Nutte
-[Verse 3]Fick dein Reimschema, Nutte, ich bin GangsterIch ficke RTL, diesen Hurensohn-SenderWann kommt der pädophile Kay endlich hinter Gitter?DSDS – Paradies, wa, du Kinderficker?Ich wünsche allen bei der BZ - und bei DSDS 'n positiven Aids-TestEs ist Tempelhof, hier gibt es kein TempolimitGuck mich an, ich bin mehr Gangsta als mein Gangsta-ImageYeah, ich bin der Mann für die harten JobsWas will Prinz Marcus, der Tomatenkopf?Hurensohn, denkt, dass er die Welt regiertDoch hat in Kitzbühel von Arafat Schellen kassiertWir machen im Café Fifa-TurnierGrüße diese Opfer von der BILD und vom Berliner KurierDiese Pisser schieben einen Hass auf mich als wär ich HitlerIch hab vier Kinder, Ehefrau und ficke eure Mütter[Hook]Es ist mitten in der Nacht, du hast Angst in BerlinIch schluck Tilidin und Amphetamin, yeahHalt die Fresse, Junge guck auf den BodenUm Typen so wie mich machst du lieber einen Bogen, NutteEs ist mitten in der Nacht, du hast Angst in BerlinIch schluck Tilidin und Amphetamin, yeahHalt die Fresse, Junge guck auf den BodenUm Typen so wie mich machst du lieber einen Bogen, Nutte
-[Samples]Shoot up your block and make you know meCause long as I'm alive I'mma live illegalThis is the dirty side of the game that you never heard offIt's on 'til the death 'til we settle the scoreShoot up your block and make you know meYou ain't really real, I can tell when I look at youThis is the dirty side of the gameMCs I'll be burning, burning hot</t>
+          <t>[Intro]
+Yeah, ah
+[Verse 1]
+Fick dein Tanktop, Sonny macht den Bank Job
+Kay wird gefickt - Es ist one night in Bangkok
+Van Damme - Streetfighter, was ist los jetzt, du FreestylerWenn ich komme rappst du auf den Knien weiter
+Es ist mitten in der Nacht, ich bin draußen
+Deutschrap hat schwarzes Haar und dunkelbraune Augen
+Sag, was willst du Opfer machen, wenn ich zu 'nem Wolf mutier?
+Ich fick deine Mutter unddein Vater hängt beim Golfturnier
+S-O-N-N, Nutte, es istGangbang
+Ich bin Einzelgänger und mach nicht auf Wu-Tang-Clan
+Der Lonesome Rider,kleiner Hosenscheißer
+Du hast höchstens große Eier in deinem Foreneintrag
+Ich bin Sonny Black, ich stehe meinen Mann
+Kämpfst du gegen mich, kämpfst du gegen eine Wand
+Guck die Ghettokids, sie nehmen meine Lebensweise an
+Deine Mutter ist ne Hure, weil sie Hefeweizen tankt
+[Hook]
+Es ist mitten in der Nacht, du hast Angst in Berlin
+Ich schluck Tilidin und Amphetamin, yeah
+Halt die Fresse, Junge guck auf den Boden
+Um Typen so wie mich machst du lieber einen Bogen, Nutte
+Es ist mitten in der Nacht, du hast Angst in Berlin
+Ich schluck Tilidin und Amphetamin, yeah
+Halt die Fresse, Junge guck auf den Boden
+Um Typen so wie mich machst du lieber einen Bogen, Nutte
+[Verse 2]
+Es ist 2014, Pöbelei via Twitter
+Du schwuler Spast singst immer noch 'Cry me a river'
+Ich komm' aus der Stadt mit den Tags an den Wänden
+Die letzten echten Cowboys - Westernlegenden
+Ticker von der Hasenheide, und du wechselst jetzt die Straßenseite
+Denn ich bin nicht deine Kragenweite
+Kung-Fu-Fighter, Mund zu Kleiner
+Die Straßen sind Mein, auch ohne Grundbucheintrag, yeah
+Wie ich Takt für Takt deine Mama bums
+Dein Vater ist noch immer blau, nenn' ihn Papa Schlumpf
+Du kleiner Bastard küsst die Hochhauswand
+Denn hier gibt es keinen Notausgang -Rest In Peace, Nutte
+Brandneue Airmax, Zahnstocher sitzt
+Ich mach Probleme wie der Nahostkonflikt
+Und mir ist scheißegal, ob du ein Hardrocker bist
+In Berlin wird dein Arschloch gefickt, yeah
+[Hook]
+Es ist mitten in der Nacht, du hast Angst in Berlin
+Ich schluck Tilidin und Amphetamin, yeah
+Halt die Fresse, Junge guck auf den Boden
+Um Typen so wie mich machst du lieber einen Bogen, Nutte
+Es ist mitten in der Nacht, du hast Angst in Berlin
+Ich schluck Tilidin und Amphetamin, yeah
+Halt die Fresse, Junge guck auf den Boden
+Um Typen so wie mich machst du lieber einen Bogen, Nutte
+[Verse 3]
+Fick dein Reimschema, Nutte, ich bin Gangster
+Ich ficke RTL, diesen Hurensohn-Sender
+Wann kommt der pädophile Kay endlich hinter Gitter?DSDS – Paradies, wa, du Kinderficker?
+Ich wünsche allen bei der BZ - und bei DSDS 'n positiven Aids-Test
+Es ist Tempelhof, hier gibt es kein Tempolimit
+Guck mich an, ich bin mehr Gangsta als mein Gangsta-Image
+Yeah, ich bin der Mann für die harten Jobs
+Was will Prinz Marcus, der Tomatenkopf?
+Hurensohn, denkt, dass er die Welt regiert
+Doch hat in Kitzbühel von Arafat Schellen kassiert
+Wir machen im Café Fifa-Turnier
+Grüße diese Opfer von der BILD und vom Berliner Kurier
+Diese Pisser schieben einen Hass auf mich als wär ich Hitler
+Ich hab vier Kinder, Ehefrau und ficke eure Mütter
+[Hook]
+Es ist mitten in der Nacht, du hast Angst in Berlin
+Ich schluck Tilidin und Amphetamin, yeah
+Halt die Fresse, Junge guck auf den Boden
+Um Typen so wie mich machst du lieber einen Bogen, Nutte
+Es ist mitten in der Nacht, du hast Angst in Berlin
+Ich schluck Tilidin und Amphetamin, yeah
+Halt die Fresse, Junge guck auf den Boden
+Um Typen so wie mich machst du lieber einen Bogen, Nutte
+[Samples]
+Shoot up your block and make you know meCause long as I'm alive I'mma live illegalThis is the dirty side of the game that you never heard offIt's on 'til the death 'til we settle the scoreShoot up your block and make you know meYou ain't really real, I can tell when I look at youThis is the dirty side of the gameMCs I'll be burning, burning hot</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,8 +875,59 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Part 1]Hier kommt der Knastrapper, Hassrapper, GhettopräsidentIch bin gegen diese Zecken resistentGeh in Deckung, wenn ich bang'Ich bin wie ein Bösewicht aus einem PsychothrillerZieh' das Koks schon vor dem Frühstück in der RiesenvillaTrainingsjacke, drei Streifen - AMG mit BreitreifenKeine zwei Minuten, bis die Bullenschweine einreitenMike Tyson AttitüdeBargeld in der WaschmaschineKoffer voller Dollarnoten, wenn ich kurz nach Bagdad fliegeWas für Saint-Tropez? Ich chill' im StammcaféFlatscreen Bundesliga, News auf dem KanapeeIch war der erste Kanacke auf der Viva-CouchUnd du wirst weggepustet wie der Shisha-RauchEs gibt keinen Feature-Tausch, was denkst du, wer du bist?Ich bin hier der Ghettobürgermeister, du nur der TouristWeil ich das Sagen habe, weil ich die Regeln macheKüsst du meine Hand, Nutte, es ist Ehrensache[Hook]Crackdealer Sound, digga, ExspielerfrauJeder weiß wer ich bin (Sonny Black!)Auf dem Bildtitelblatt, seh wie Osama ausJeder kennt mich und dein Obernazi-Großvater auchCrackdealer Sound, digga, ExspielerfrauJeder weiß wer ich bin (Sonny Black!)Auf dem Bildtitelblatt, seh wie Osama ausJeder kennt mich und dein Obernazi-Großvater auch
-[Part 2]Ihr denkt ihr könnt mich stoppenIch hab das Crack in meinen TennissockenKanackensound aus deinen HandyboxenDas ganze Schutzgeld in 'nem Koffer verpacktUnd ich hol' es ab am Potsdamer PlatzJa ich schieße auf Politiker, Minister, zielsicherBin der Attentäter, Collegejacke, NappalederIch werf' einen Blick in meinen Spiegel und ich grinse böseUnd diese Inzestsöhne reden über MindestlöhneYeah, ich mach den Großstadtsound für den nächsten PokerraubUnterweltoberhaupt, Merkel hängt mein Poster aufVon Stetten macht jetzt auf GetränkelieferantAber übermorgen lutscht er bei den Gangstern wieder SchwanzDas ist der Lauf der DingeMach dich aus dem Staub, verschwindeIch bin auf Koka, kann nicht schlafen und hab AugenringeIch bin schlecht gelaunt, doch die Finanzen sehen bestens ausGrüß mal deine Frau, diese fette Sau[Hook]Crackdealer Sound, digga, ExspielerfrauJeder weiß wer ich bin (Sonny Black!)Auf dem Bildtitelblatt, seh wie Osama ausJeder kennt mich und dein Obernazi-Großvater auchCrackdealer Sound, digga, ExspielerfrauJeder weiß wer ich bin (Sonny Black!)Auf dem Bildtitelblatt, seh wie Osama ausJeder kennt mich und dein Obernazi-Großvater auch</t>
+          <t>[Part 1]
+Hier kommt der Knastrapper, Hassrapper,Ghettopräsident
+Ich bin gegen diese Zecken resistent
+Geh in Deckung, wenn ich bang'
+Ich bin wie ein Bösewicht aus einem Psychothriller
+Zieh' das Koks schon vor dem Frühstück in der Riesenvilla
+Trainingsjacke, drei Streifen - AMG mit Breitreifen
+Keine zwei Minuten, bis die Bullenschweine einreiten
+Mike Tyson Attitüde
+Bargeld in der Waschmaschine
+Koffer voller Dollarnoten, wenn ich kurz nach Bagdad fliege
+Was für Saint-Tropez? Ich chill' im Stammcafé
+Flatscreen Bundesliga, News auf dem Kanapee
+Ich war der erste Kanacke auf der Viva-Couch
+Und du wirst weggepustet wie der Shisha-Rauch
+Es gibt keinen Feature-Tausch, was denkst du, wer du bist?
+Ich bin hier der Ghettobürgermeister, du nur der Tourist
+Weil ich das Sagen habe, weil ich die Regeln mache
+Küsst du meine Hand, Nutte, es ist Ehrensache
+[Hook]
+Crackdealer Sound, digga, Exspielerfrau
+Jeder weiß wer ich bin (Sonny Black!)
+Auf dem Bildtitelblatt, seh wie Osama aus
+Jeder kennt mich und dein Obernazi-Großvater auch
+Crackdealer Sound, digga, Exspielerfrau
+Jeder weiß wer ich bin (Sonny Black!)
+Auf dem Bildtitelblatt, seh wie Osama aus
+Jeder kennt mich und dein Obernazi-Großvater auch
+[Part 2]
+Ihr denkt ihr könnt mich stoppen
+Ich hab das Crack in meinen Tennissocken
+Kanackensound aus deinen Handyboxen
+Das ganze Schutzgeld in 'nem Koffer verpacktUnd ich hol' es ab am Potsdamer Platz
+Ja ich schieße auf Politiker, Minister, zielsicher
+Bin der Attentäter, Collegejacke, Nappaleder
+Ich werf' einen Blick in meinen Spiegel und ich grinse böse
+Und diese Inzestsöhne reden über Mindestlöhne
+Yeah, ich mach den Großstadtsound für den nächsten PokerraubUnterweltoberhaupt, Merkel hängt mein Poster auf
+Von Stetten macht jetzt auf GetränkelieferantAber übermorgen lutscht er bei den Gangstern wieder Schwanz
+Das ist der Lauf der Dinge
+Mach dich aus dem Staub, verschwinde
+Ich bin auf Koka, kann nicht schlafen und hab Augenringe
+Ich bin schlecht gelaunt, doch die Finanzen sehen bestens aus
+Grüß mal deine Frau, diese fette Sau
+[Hook]
+Crackdealer Sound, digga, Exspielerfrau
+Jeder weiß wer ich bin (Sonny Black!)
+Auf dem Bildtitelblatt, seh wie Osama aus
+Jeder kennt mich und dein Obernazi-Großvater auch
+Crackdealer Sound, digga, Exspielerfrau
+Jeder weiß wer ich bin (Sonny Black!)
+Auf dem Bildtitelblatt, seh wie Osama aus
+Jeder kennt mich und dein Obernazi-Großvater auch</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -677,9 +979,76 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Hook]Es ist Battle on the rocksBerlin ist mein BlockIch bin hier der BossUnd dein Vater hat kein' JobMann, ich kacke auf die CopsNike Sporttasche voller StoffBerlin ist mein Block, mein BlockEs ist Battle on the rocksBerlin ist mein BlockIch bin hier der BossUnd dein Vater hat kein' JobMann, ich kacke auf die CopsNike Sporttasche voller StoffBerlin ist mein Block, mein Block[Part 1]Ich bin Tyrann in dieser Stadt voller PolizeiNichts bleibt vergessen, alles holt dich einUnd Sonny kannst du nicht an's Bein pissenDarfst dich hier nicht einmischenBullen wollen mich schnappen, aber sitzen hinter SchreibtischenYeah, es ist Sonny Black, Gangster-Rap-ChronikenKuck, wie wir den deutschen Staat trocken in den Po fickenAlles ist in meiner Hand, du musst um Erlaubnis fragenFrüher dealen auf den Straßen, heute hab ich Haus und GartenYeah, ich bin echter ImmobilienhaiGeld kommt, Geld geht, die Familie bleibtUnd ich bin raptechnisch 'ne Mogelpackung?Warum hängt ihr Opfer dann alle an meinem Hodensack rum?Mann, ich bin King of Kingz, meine Stadt ist Macht, WestberlinAlter guck, wie RTL diesen Hassrapper liebtAlter guck, wie diese ganzen deutschen Spießer mich verfluchenAber ich bin wie ein Priester für die Jugend
-[Hook]Es ist Battle on the rocksBerlin ist mein BlockIch bin hier der BossUnd dein Vater hat kein' JobMann, ich kacke auf die CopsNike Sporttasche voller StoffBerlin ist mein Block, mein BlockEs ist Battle on the rocksBerlin ist mein BlockIch bin hier der BossUnd dein Vater hat kein' JobMann, ich kacke auf die CopsNike Sporttasche voller StoffBerlin ist mein Block, mein Block[Part 2]Berlin ist nicht Hamburg, Berlin ist nicht FrankfurtQuatsch nicht, du HanswurstIch mach' den Grammkurs, yeahDiese Stadt war meine erste LiebeUnd ich regel' die Geschehnisse aus der VogelperspektiveDas ist wie Schach, Junge, wir sind die, die Fäden ziehenWie wir mit dei'm Leben spielenHier gibt's keinen SeelenfriedenNutte, hier darf keiner tanzenNur nach meiner Pfeife tanzenOder ich muss deine Wohnung stürmen mit den GeisteskrankenFick den Staatsanwalt, ich bin hier die StaatsgewaltIch häng nicht mit Tucken ab und feier' keinen KarnevalDas sind die Geschichten aus dem Leben eines GangstersIn deiner Crew stecken nur Würstchen, nennt euch SenfglasIch chill' im Sessel vor dem Kokaberg wie ScarfaceDu gegen mich ist wie Mofa gegen HarleyDiesel gegen AMGDu bist nicht der Rede wertSonny Black, elitär, yeah
-[Hook]Es ist Battle on the rocksBerlin ist mein BlockIch bin hier der BossUnd dein Vater hat kein' JobMann, ich kacke auf die CopsNike Sporttasche voller StoffBerlin ist mein Block, mein BlockEs ist Battle on the rocksBerlin ist mein BlockIch bin hier der BossUnd dein Vater hat kein' JobMann, ich kacke auf die CopsNike Sporttasche voller StoffBerlin ist mein Block, mein Block</t>
+          <t>[Hook]
+Es ist Battle on the rocks
+Berlin ist mein BlockIch bin hier der Boss
+Und dein Vater hat kein' Job
+Mann, ich kacke auf die Cops
+Nike Sporttasche voller Stoff
+Berlin ist mein Block, mein Block
+Es ist Battle on the rocks
+Berlin ist mein BlockIch bin hier der Boss
+Und dein Vater hat kein' Job
+Mann, ich kacke auf die Cops
+Nike Sporttasche voller Stoff
+Berlin ist mein Block, mein Block
+[Part 1]
+Ich bin Tyrann in dieser Stadt voller Polizei
+Nichts bleibt vergessen, alles holt dich ein
+Und Sonny kannst du nicht an's Bein pissen
+Darfst dich hier nicht einmischen
+Bullen wollen mich schnappen, aber sitzen hinter Schreibtischen
+Yeah, es ist Sonny Black, Gangster-Rap-Chroniken
+Kuck, wie wir den deutschen Staat trocken in den Po ficken
+Alles ist in meiner Hand, du musst um Erlaubnis fragen
+Früher dealen auf den Straßen, heute hab ich Haus und Garten
+Yeah, ich bin echter Immobilienhai
+Geld kommt, Geld geht, die Familie bleibt
+Und ich bin raptechnisch 'ne Mogelpackung?Warum hängt ihr Opfer dann alle an meinem Hodensack rum?
+Mann,ich bin King of Kingz,meine Stadt ist Macht, Westberlin
+Alter guck, wie RTL diesen Hassrapper liebt
+Alter guck, wie diese ganzen deutschen Spießer mich verfluchen
+Aber ich bin wie ein Priester für die Jugend
+[Hook]
+Es ist Battle on the rocks
+Berlin ist mein BlockIch bin hier der Boss
+Und dein Vater hat kein' Job
+Mann, ich kacke auf die Cops
+Nike Sporttasche voller Stoff
+Berlin ist mein Block, mein Block
+Es ist Battle on the rocks
+Berlin ist mein BlockIch bin hier der Boss
+Und dein Vater hat kein' Job
+Mann, ich kacke auf die Cops
+Nike Sporttasche voller Stoff
+Berlin ist mein Block, mein Block
+[Part 2]
+Berlin ist nicht Hamburg, Berlin ist nicht FrankfurtQuatsch nicht, du Hanswurst
+Ich mach' den Grammkurs, yeah
+Diese Stadt war meine erste LiebeUnd ich regel' die Geschehnisse aus der Vogelperspektive
+Das ist wie Schach, Junge, wir sind die, die Fäden ziehen
+Wie wir mit dei'm Leben spielen
+Hier gibt's keinen Seelenfrieden
+Nutte, hier darf keiner tanzenNur nach meiner Pfeife tanzen
+Oder ich muss deine Wohnung stürmen mit den Geisteskranken
+Fick den Staatsanwalt, ich bin hier die Staatsgewalt
+Ich häng nicht mit Tucken ab und feier' keinen Karneval
+Das sind die Geschichten aus dem Leben eines GangstersIn deiner Crew stecken nur Würstchen, nennt euch Senfglas
+Ich chill' im Sessel vor dem Kokaberg wie Scarface
+Du gegen mich ist wie Mofa gegen HarleyDiesel gegen AMGDu bist nicht der Rede wertSonny Black, elitär, yeah
+[Hook]
+Es ist Battle on the rocks
+Berlin ist mein BlockIch bin hier der Boss
+Und dein Vater hat kein' Job
+Mann, ich kacke auf die Cops
+Nike Sporttasche voller Stoff
+Berlin ist mein Block, mein Block
+Es ist Battle on the rocks
+Berlin ist mein BlockIch bin hier der Boss
+Und dein Vater hat kein' Job
+Mann, ich kacke auf die Cops
+Nike Sporttasche voller Stoff
+Berlin ist mein Block, mein Block</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,9 +1100,81 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Songtext zu „Osama Flow“][Part 1]YeahCCN, BTMAMG, BMWCSD, BNDTaliban, TNTGangsters, BangbusWowereit, SprengsatzImmer immer mehrIch bin Multimillionär, yeahSchwarzlicht, ScheinwerferMaischberger will mein SpermaTaliban RapperHannibal LecterNutte, du bist MooshammerNutte, ich bin OsamaAfghanistan, PakistanPartisan, VatikanAttentat, MassengrabSonny Black, MafiaHashtag, FlashbackEGJ, Rat PackWolf im SchafspelzSchwarzgeld, KartellShisha - FeigeLila ScheineYeah, Stern TV MagazinKill Sarazin, free FalastinTurban, radikalErdöl, KapitalFicke deine Mutter diese Hurentochter vaginal
-[Hook]Sonny Black - Osama FlowHomos spritzen sich in ihren Po AnabolWenn ich komme bist du Schwuchtel so wie Moshammer totEs ist Sonny Black Boss, yeah, Osama FlowSonny Black - Osama FlowHomos spritzen sich in ihren Po AnabolWenn ich komme bist du Schwuchtel so wie Moshammer totEs ist Sonny Black Boss, yeah, Osama Flow[Part 2]Samurai, Rambo 3Nahost, ChaosLandtag, AnschlagAsylantragAnis, Youssef, MohammedTuaregHindukush, BeduinImport, HeroinFlugzeug, Absturz, Tel AvivC'est la vieSaudis, BurkaAudis, FuhrparkGangsterboss BlackMembers, ProspectsBrustschuss, LuftschutzIch ess CouscousYeah, Journalist, Faustschlag, SchmerzensgeldVerkehrte Welt, Berthelsmann, RTLFahnder, Steuer, SteuerfahnderAn alle deutschen Rapper: Ich bin euer VaterStress ohne Grund, respektlose JungsWir sind primitiv, aber Techno ist KunstYeah, Soldat, Vollbart, DiktatorErsguterjunge, wenn ich komme ist es Hardcore
-[Hook]Sonny Black - Osama FlowHomos spritzen sich in ihren Po AnabolWenn ich komme bist du Schwuchtel so wie Moshammer totEs ist Sonny Black Boss, yeah, Osama FlowSonny Black - Osama FlowHomos spritzen sich in ihren Po AnabolWenn ich komme bist du Schwuchtel so wie Moshammer totEs ist Sonny Black Boss, yeah, Osama Flow</t>
+          <t>[Songtext zu „Osama Flow“]
+[Part 1]
+Yeah
+CCN,BTM
+AMG,BMW
+CSD,BND
+Taliban, TNT
+Gangsters,Bangbus
+Wowereit,Sprengsatz
+Immer immer mehr
+Ich bin Multimillionär, yeah
+Schwarzlicht, Scheinwerfer
+Maischberger will mein Sperma
+Taliban Rapper
+Hannibal Lecter
+Nutte, du bist Mooshammer
+Nutte, ich bin Osama
+Afghanistan, Pakistan
+Partisan, Vatikan
+Attentat, Massengrab
+Sonny Black,Mafia
+Hashtag, Flashback
+EGJ, Rat Pack
+Wolf im Schafspelz
+Schwarzgeld, Kartell
+Shisha-Feige
+Lila Scheine
+Yeah, Stern TV Magazin
+Kill Sarazin,free Falastin
+Turban,radikal
+Erdöl, Kapital
+Ficke deine Mutter diese Hurentochter vaginal
+[Hook]
+Sonny Black - Osama Flow
+Homos spritzen sich in ihren Po Anabol
+Wenn ich komme bist du Schwuchtel so wie Moshammer tot
+Es ist Sonny Black Boss, yeah, Osama Flow
+Sonny Black - Osama Flow
+Homos spritzen sich in ihren Po Anabol
+Wenn ich komme bist du Schwuchtel so wie Moshammer tot
+Es ist Sonny Black Boss, yeah, Osama Flow
+[Part 2]
+Samurai,Rambo 3
+Nahost, Chaos
+Landtag, Anschlag
+Asylantrag
+Anis, Youssef, Mohammed
+Tuareg
+Hindukush,Beduin
+Import, Heroin
+Flugzeug, Absturz, Tel Aviv
+C'est la vie
+Saudis,Burka
+Audis, Fuhrpark
+Gangsterboss Black
+Members, Prospects
+Brustschuss, Luftschutz
+Ich ess Couscous
+Yeah, Journalist, Faustschlag, Schmerzensgeld
+Verkehrte Welt, Berthelsmann,RTL
+Fahnder, Steuer, Steuerfahnder
+An alle deutschen Rapper: Ich bin euer Vater
+Stress ohne Grund,respektlose Jungs
+Wir sind primitiv, aber Techno ist Kunst
+Yeah, Soldat,Vollbart,Diktator
+Ersguterjunge,wenn ich komme ist es Hardcore
+[Hook]
+Sonny Black - Osama Flow
+Homos spritzen sich in ihren Po Anabol
+Wenn ich komme bist du Schwuchtel so wie Moshammer tot
+Es ist Sonny Black Boss, yeah, Osama Flow
+Sonny Black - Osama Flow
+Homos spritzen sich in ihren Po Anabol
+Wenn ich komme bist du Schwuchtel so wie Moshammer tot
+Es ist Sonny Black Boss, yeah, Osama Flow</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -785,9 +1226,63 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Intro: Bushido und Farid Bang]Jo, Farid!- Jo!Also, ich hab jetzt alles besorgt.. Bist du bereit, jetzt?- Ich bin bereit, wir warten auf dich!Okay, alles klar, bis gleich![Part 1: Bushido]Sie stellen mich als Anarchisten dar, mit dem Salafisten-BartIch komm zum Casting und frag, ob ich einmal Nazan fisten darfBin der König meiner Klasse, wie der Phönix aus der AscheBin kein Bäcker, doch es sind die größten Brötchen, die ich backeDicker, wir sind keine Bruderschaft, Gangsta-Rap-SupermachtWerdet ruhig erwachsen, ich bleib underground - U-BahnschachtChampionsleague, Penthouse-Suite, Westberlin - Cosa NostraIch steig aus dem Jet und hab das Koka im Rimowa-KofferYeah, ihr Bitches lächelt in die KameraDoch Gangsta Rap bedeutet Schwanzvergleich - Sylvie van der VaartEs ist ganz normal, ich bring euch alle ins GrabDenn Sonny Black kommt am Valentinstag![Hook: Bushido]Wir sind Gangsta Rap Kings und du bleibst ein ImitatWir sind keine Freunde, nur weil ihr die gleiche Schiene fahrtDas hier bleibt ein Syndikat, yeah, Gangstarap-AvengersWir ficken deine Mutter, wenn du Welle machst, yeahWir sind Gangstarapkings und du bleibst ein ImitatWir sind keine Freunde, nur weil ihr die gleiche Schiene fahrtDas hier bleibt ein Syndikat (yeah), Gangstarap-AvengersWir ficken deine Mutter, wenn du Welle machst (yeah)
-[Part 2: Kollegah]26 Zoll am Lex, Bett voller DollarstacksModels servieren Crack, Coke aus Holland jetzt auf GoldtablettsVersteckt unter Holzparketts, steuerfreies GeldGangstarapkings, Bitch, jetzt wird dein Freundeskreis entstelltEs ist der Mac, der dich zum Krüppel boxtIch fick' deine Mom und du kämpfst mit deiner Schwester um die beste Sicht am SchlüssellochWestberlin und Düsseldorf, Schlampe, wir sind Kings im BizDoch glaubst du, dass ich dich nicht mit paar Punches in den Himmel schick'Das Ganze hier nur Image ist? Doch es ist wie Turmspringen, BitchStehst du erst mal vor der Kante, wird dir schwindeligDer Rest sind nur gottlose Opfer, die eh auf der Straße landenWie der Boss, wenn er per Helikopter zum Shoppen fliegt, ey[Hook: Bushido]Wir sind Gangsta Rap Kings und du bleibst ein ImitatWir sind keine Freunde, nur weil ihr die gleiche Schiene fahrtDas hier bleibt ein Syndikat, yeah, Gangstarap-AvengersWir ficken deine Mutter, wenn du Welle machst, yeahWir sind Gangstarapkings und du bleibst ein ImitatWir sind keine Freunde, nur weil ihr die gleiche Schiene fahrtDas hier bleibt ein Syndikat (yeah), Gangstarap-AvengersWir ficken deine Mutter, wenn du Welle machst (yeah)[Part 3: Farid Bang]Als ich Wind bekam, von der freien Meinungsäußerung für Frauen(Hehehe) Ja, da habe ich äußerst dumm geschautRapper reden von Gs, die sie mit Waffen beschützenSie sind keine Taucher, doch haben nur Flaschen im RückenDu redest über Bitches, ich fick' ÜberbitchesUnd dein Gesicht ist das sicherste VerhütungsmittelWerd's deiner Tante zeigen, ich lasse die Schlampe reitenUnd halte sie bei der Stange, wie HantelscheibenB-B-Banger Musik, es wird richtig übelUnd ist Schulbankdrücken nicht 'ne Fitnessübung? (Ueh?)Egal ob es Rapper oder Fotzen sindMiss Platnum, ich breche dir dein Doppelkinn!
-[Hook: Bushido]Wir sind Gangsta Rap Kings und du bleibst ein ImitatWir sind keine Freunde, nur weil ihr die gleiche Schiene fahrtDas hier bleibt ein Syndikat, yeah, Gangstarap-AvengersWir ficken deine Mutter, wenn du Welle machst, yeahWir sind Gangstarapkings und du bleibst ein ImitatWir sind keine Freunde, nur weil ihr die gleiche Schiene fahrtDas hier bleibt ein Syndikat (yeah), Gangstarap-AvengersWir ficken deine Mutter, wenn du Welle machst (yeah)</t>
+          <t>[Intro: Bushido und Farid Bang]Jo, Farid!- Jo!Also, ich hab jetzt alles besorgt.. Bist du bereit, jetzt?- Ich bin bereit, wir warten auf dich!Okay, alles klar, bis gleich!
+[Part 1: Bushido]
+Sie stellen mich als Anarchisten dar, mit dem Salafisten-Bart
+Ich komm zum Casting und frag, ob ich einmal Nazan fisten darf
+Bin der König meiner Klasse, wie der Phönix aus der Asche
+Bin kein Bäcker, doch es sind die größten Brötchen, die ich backe
+Dicker, wir sind keine Bruderschaft, Gangsta-Rap-Supermacht
+Werdet ruhig erwachsen, ich bleib underground - U-Bahnschacht
+Championsleague, Penthouse-Suite, Westberlin -Cosa Nostra
+Ich steig aus dem Jet und hab das Koka im Rimowa-Koffer
+Yeah, ihr Bitches lächelt in die KameraDoch Gangsta Rap bedeutet Schwanzvergleich - Sylvie van der Vaart
+Es ist ganz normal, ich bring euch alle ins Grab
+Denn Sonny Black kommt am Valentinstag!
+[Hook: Bushido]
+Wir sind Gangsta Rap Kings und du bleibst ein Imitat
+Wir sind keine Freunde, nur weil ihr die gleiche Schiene fahrt
+Das hier bleibt ein Syndikat, yeah,Gangstarap-Avengers
+Wir ficken deine Mutter, wenn du Welle machst, yeah
+Wir sind Gangstarapkings und du bleibst ein Imitat
+Wir sind keine Freunde, nur weil ihr die gleiche Schiene fahrt
+Das hier bleibt ein Syndikat (yeah),Gangstarap-Avengers
+Wir ficken deine Mutter, wenn du Welle machst (yeah)
+[Part 2: Kollegah]
+26 Zoll am Lex, Bett voller DollarstacksModels servieren Crack, Coke aus Holland jetzt auf GoldtablettsVersteckt unter Holzparketts, steuerfreies GeldGangstarapkings,Bitch, jetzt wird dein Freundeskreis entstelltEs ist der Mac, der dich zum Krüppel boxt
+Ich fick' deine Mom und du kämpfst mit deiner Schwester um die beste Sicht am Schlüsselloch
+Westberlin und Düsseldorf, Schlampe, wir sind Kings im Biz
+Doch glaubst du, dass ich dich nicht mit paar Punches in den Himmel schick'
+Das Ganze hier nur Image ist?Doch es ist wie Turmspringen, BitchStehst du erst mal vor der Kante, wird dir schwindelig
+Der Rest sind nur gottlose Opfer, die eh auf der Straße landenWie der Boss, wenn er per Helikopter zum Shoppen fliegt, ey
+[Hook: Bushido]
+Wir sind Gangsta Rap Kings und du bleibst ein Imitat
+Wir sind keine Freunde, nur weil ihr die gleiche Schiene fahrt
+Das hier bleibt ein Syndikat, yeah,Gangstarap-Avengers
+Wir ficken deine Mutter, wenn du Welle machst, yeah
+Wir sind Gangstarapkings und du bleibst ein Imitat
+Wir sind keine Freunde, nur weil ihr die gleiche Schiene fahrt
+Das hier bleibt ein Syndikat (yeah),Gangstarap-Avengers
+Wir ficken deine Mutter, wenn du Welle machst (yeah)
+[Part 3: Farid Bang]
+Als ich Wind bekam, von der freien Meinungsäußerung für Frauen(Hehehe) Ja, da habe ich äußerst dumm geschaut
+Rapper reden von Gs, die sie mit Waffen beschützen
+Sie sind keine Taucher, doch haben nur Flaschen im Rücken
+Du redest über Bitches, ich fick' Überbitches
+Und dein Gesicht ist das sicherste Verhütungsmittel
+Werd's deiner Tante zeigen, ich lasse die Schlampe reitenUnd halte sie bei der Stange, wie Hantelscheiben
+B-B-Banger Musik, es wird richtig übel
+Und ist Schulbankdrücken nicht 'ne Fitnessübung? (Ueh?)
+Egal ob es Rapper oder Fotzen sindMiss Platnum, ich breche dir dein Doppelkinn!
+[Hook: Bushido]
+Wir sind Gangsta Rap Kings und du bleibst ein Imitat
+Wir sind keine Freunde, nur weil ihr die gleiche Schiene fahrt
+Das hier bleibt ein Syndikat, yeah, Gangstarap-Avengers
+Wir ficken deine Mutter, wenn du Welle machst, yeah
+Wir sind Gangstarapkings und du bleibst ein Imitat
+Wir sind keine Freunde, nur weil ihr die gleiche Schiene fahrt
+Das hier bleibt ein Syndikat (yeah), Gangstarap-Avengers
+Wir ficken deine Mutter, wenn du Welle machst (yeah)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -839,9 +1334,58 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Part 1]Vollkontakt, kuck' mich an, wer hat Angst, ich bin draufUnd ich ramme deiner Schwester meinen Schwanz in ihr MaulIch bin 35 Jahre, aber hungrig wie damalsDeine Nutte muss nach diesem Mundfick zum ZahnarztYeah, keine Toleranz für euch HomoboysPromo läuftKomm, ich zieh dich ab wie ein PolaroidIch bring die Straße in den PlattenladenUnd ich piss gegen den KastenwagenKeiner hat mir was zu sagenIch bin Millionär, hab die Spendierhosen anDieser Penner MC Fitti lebt von BierdosenpfandYeah, mach mal nicht auf cool du HipsterbrautDein IQ ist nicht höher als mein SpritverbrauchEs ist Sonny Black, BodycheckSan PellegrinoVan Damme, Al PacinoDein Verstand deckt BushidoIch bin kein WohltäterDas ist kein TonträgerDas hier ist ich ficke Olli Pocher mit 'nem Totschläger[Hook]Schöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen BleiNutte, trau dich mal in unser Wespennest hereinWeil ihr Lästerschwestern seidGibt's 'ne Messerstecherei, yeahSchöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen BleiNutte, trau dich mal in unser Wespennest hereinWeil ihr Lästerschwestern seidGibt's 'ne Messerstecherei, yeah
-[Part 2]Messerstecherei und ich ficke 31erAuf dich und deinen scheiß -Und glaub mir, gegen meine BodentruppsHilft dir kein PersonenschutzDu kleiner Stricher, es ist Sonny BlackDas hier ist mein Fick-Deine-Mutter-SlangWenn ich komme, siehst du diese ganzen Schwanzlutscher renn'Keine weiße WesteBleibe eine BestieIch zerfleisch' dich und verbrenne deine LeichenresteIn meiner Stadt darf keiner Foxtrott tanzenIch ohrfeige Rapper so wie OstblockschlampenFrüher hieß es für mich immer dealen vor dem KioskMesser in der Tasche, Kokain in meinen ReeboksHeute bin ich sowas wie ein AushängeschildUnd Georgina geht noch heute drauf wenn ich willDer einzige Typ, der nicht auf Popsänger machtUnd echte Männer hängen nicht am Jobcenter ab[Hook]Schöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen BleiNutte, trau dich mal in unser Wespennest hereinWeil ihr Lästerschwestern seidGibt's 'ne Messerstecherei, yeahSchöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen BleiNutte, trau dich mal in unser Wespennest hereinWeil ihr Lästerschwestern seidGibt's 'ne Messerstecherei, yeah
-Werd Teil der RGD-Community!</t>
+          <t>[Songtext zu „Messerstecherei"]
+[Intro]
+Yeah
+[Part 1]
+Vollkontakt, guck' mich an, wer hat Angst, ich bin drauf
+Und ich ramme deiner Schwester meinen Schwanz in ihr Maul
+Ich bin fünfunddreißig Jahre, aber hungrig wie damals
+Deine Nutte muss nach diesem Mundfick zum Zahnarzt
+Yeah, keine Toleranz für euch HomoboysPromo läuft,komm, ich zieh dich ab wie ein Polaroid
+Ich bring' die Straße in den Plattenladen
+Und ich piss' gegen den Kastenwagen, keiner hat mir was zu sagen
+Ich bin Millionär, hab die Spendierhosen an
+Dieser Penner MC Fitti lebt von Bierdosenpfand
+Yeah, mach mal nicht auf cool, du Hipsterbraut
+Dein IQ ist nicht höher als mein Spritverbrauch
+Es ist Sonny Black, Bodycheck, San Pellegrino
+Van Damme,Al Pacino, dein Verstand deckt Bushido
+Ich bin kein Wohltäter, das ist kein Tonträger
+Das hier ist „ich ficke Olli Pocher mit 'nem Totschläger"
+[Hook]
+Schöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen Blei
+Nutte, trau dich mal in unser Wespennest herein
+Weil ihr Lästerschwestern seid
+Gibt's 'ne Messerstecherei, yeah
+Schöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen Blei
+Nutte, trau dich mal in unser Wespennest herein
+Weil ihr Lästerschwestern seid
+Gibt's 'ne Messerstecherei, yeah
+[Part 2]
+Messerstecherei und ich ficke 31er
+Auf dich und deinen scheiß -
+Und glaub mir, gegen meine BodentruppsHilft dir kein Personenschutz
+Du kleiner Stricher, es ist Sonny Black,das hier ist mein Fick-Deine-Mutter-Slang
+Wenn ich komme, siehst du diese ganzen Schwanzlutscher renn'n
+Keine weiße Weste, bleibe eine Bestie
+Ich zerfleisch' dich und verbrenne deine Leichenreste
+In meiner Stadt darf keiner Foxtrott tanzen
+Ich ohrfeige Rapper, so wie Ostblockschlampen
+Früher hieß es für mich immer: dealen vor dem KioskMesser in der Tasche, Kokain in meinen Reeboks
+Heute bin ich sowas wie ein Aushängeschild
+Und Georgina geht noch heute drauf wenn ich will
+Der einzige Typ, der nicht auf Popsänger macht
+Und echte Männer hängen nicht am Jobcenter ab, yeah
+[Hook]
+Schöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen Blei
+Nutte, trau dich mal in unser Wespennest herein
+Weil ihr Lästerschwestern seid
+Gibt's 'ne Messerstecherei, yeah
+Schöneberg, Tempelhof, MesserstechereiNeukölln, Kreuzberg, Rapper fressen Blei
+Nutte, trau dich mal in unser Wespennest herein
+Weil ihr Lästerschwestern seid
+Gibt's 'ne Messerstecherei, yeah</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -893,9 +1437,65 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Hook]Sonny Black ist der Boss und das bleibt auch soIch hab für jeden von euch Hurensöhnen Blei-PatronenIch bin kein kleiner Drogendealer, ich bin ein BaronUnd ich schmier die ganze gottverdammte PolizeistationSonny Black ist der Boss und das bleibt auch soIch hab für jeden von euch Hurensöhnen Blei-PatronenIch bin kein kleiner Drogendealer, ich bin ein BaronUnd ich schmier die ganze gottverdammte Polizeistation[Part 1]Ah, jede meiner Strophen ist so provokantIch hab' diese Medien durchschaut, wie ein HologrammDu Homo kannst nicht ficken mit dem Boss Sonny BlackIch ficke deinen schwuchteligen Love-Story TrackDu kleine Missgeburt hast Angst, wenn ich vorm Haus deiner Mami parkeUnd jetzt macht der Asiate plötzlich einen auf KamikazeYeah, was für Belvedair?Sonny macht den GeldtransferKugeln prallen an mir ab, als wenn ich eine Felswand wärIch amüsier mich über euren MisserfolgNennt mir einen guten Grund warum ich euch nicht ficken sollSechzehn Takte reichen aus um dir dein Arschloch wund zu fickenOllywood und Kay One im Panamera HundeschlittenTriff mich bei McDonald's, wenn ich Junk-Food bestelleFür die Echo-Rede kriegt die Meyer-Landrut 'ne SchelleAls ich im Knast das Steak in meiner Bratpfanne schwenkteLutschte deine Mutter gerade Kanackenschwänze, yeah!
-[Hook]Sonny Black ist der Boss und das bleibt auch soIch hab für jeden von euch Hurensöhnen Blei-PatronenIch bin kein kleiner Drogendealer, ich bin ein BaronUnd ich schmier die ganze gottverdammte PolizeistationSonny Black ist der Boss und das bleibt auch soIch hab für jeden von euch Hurensöhnen Blei-PatronenIch bin kein kleiner Drogendealer, ich bin ein BaronUnd ich schmier die ganze gottverdammte Polizeistation[Part 2]Es gibt keinen Bruderkuss, während du Fußball guckstFick ich deine dumme Hurenmutter Mutter in den UterusIch hab jetzt mit jedem Streit, weil ihr kleine Mädchen seidDu hängst mit den Gays beim Lesekreis, ich beim KäfigfightFick den Medien-Hype, ich tret in Jogginganzug vor GerichtWenn du vor mir stehst, dann achte drauf, dass du mit Vorsicht sprichst!Wähle deine Worte klug, bevor dich meine Horde suchtDenkst du echt du bist mit Mr. Carlo Cordonsport per Du?Ich wollte ganz nach oben, spuckte große TöneHeute mach ich Transaktionen - in MillionenhöheImport, Export und meine Ostblock Escort-Huren sehen aus wie vom CatwalkEs ist Sonny Black, der deutschen Rap als Geisel nimmtIch hab kein Bock mit euch zu teilen, wie ein EinzelkindUnd ich rühre keinen Finger, wenn der Preis nicht stimmtWerf dein Netz nicht aus, dort, wo der Haifisch schwimmt, Nutte!
-[Hook]Sonny Black ist der Boss und das bleibt auch soIch hab für jeden von euch Hurensöhnen Blei-PatronenIch bin kein kleiner Drogendealer, ich bin ein BaronUnd ich schmier die ganze gottverdammte PolizeistationSonny Black ist der Boss und das bleibt auch soIch hab für jeden von euch Hurensöhnen Blei-PatronenIch bin kein kleiner Drogendealer, ich bin ein BaronUnd ich schmier die ganze gottverdammte Polizeistation</t>
+          <t>[Hook]
+Sonny Black ist der Boss und das bleibt auch so
+Ich hab für jeden von euch Hurensöhnen Blei-Patronen
+Ich bin kein kleiner Drogendealer, ich bin ein Baron
+Und ich schmier die ganze gottverdammte Polizeistation
+Sonny Black ist der Boss und das bleibt auch so
+Ich hab für jeden von euch Hurensöhnen Blei-Patronen
+Ich bin kein kleiner Drogendealer, ich bin ein Baron
+Und ich schmier die ganze gottverdammte Polizeistation
+[Part 1]
+Ah, jede meiner Strophen ist so provokant
+Ich hab' diese Medien durchschaut, wie ein Hologramm
+Du Homo kannst nicht ficken mit dem Boss Sonny Black
+Ich ficke deinen schwuchteligen Love-Story Track
+Du kleine Missgeburt hast Angst, wenn ich vorm Haus deiner Mami parke
+Und jetzt macht der Asiate plötzlich einen auf Kamikaze
+Yeah, was für Belvedair?
+Sonny macht den Geldtransfer
+Kugeln prallen an mir ab, als wenn ich eine Felswand wär
+Ich amüsier mich über euren Misserfolg
+Nennt mir einen guten Grund warum ich euch nicht ficken soll
+Sechzehn Takte reichen aus um dir dein Arschloch wund zu ficken
+Ollywood und Kay One im Panamera Hundeschlitten
+Triff mich bei McDonald's, wenn ich Junk-Food bestelle
+Für die Echo-Rede kriegt die Meyer-Landrut 'ne Schelle
+Als ich im Knast das Steak in meiner Bratpfanne schwenkteLutschte deine Mutter gerade Kanackenschwänze, yeah!
+[Hook]
+Sonny Black ist der Boss und das bleibt auch so
+Ich hab für jeden von euch Hurensöhnen Blei-Patronen
+Ich bin kein kleiner Drogendealer, ich bin ein Baron
+Und ich schmier die ganze gottverdammte Polizeistation
+Sonny Black ist der Boss und das bleibt auch so
+Ich hab für jeden von euch Hurensöhnen Blei-Patronen
+Ich bin kein kleiner Drogendealer, ich bin ein Baron
+Und ich schmier die ganze gottverdammte Polizeistation
+[Part 2]
+Es gibt keinen Bruderkuss, während du Fußball guckstFick ich deine dumme Hurenmutter Mutter in den Uterus
+Ich hab jetzt mit jedem Streit, weil ihr kleine Mädchen seid
+Du hängst mit den Gays beim Lesekreis, ich beim Käfigfight
+Fick den Medien-Hype, ich tret in Jogginganzug vor Gericht
+Wenn du vor mir stehst, dann achte drauf, dass du mit Vorsicht sprichst!
+Wähle deine Worte klug, bevor dich meine Horde sucht
+Denkst du echt du bist mit Mr. Carlo Cordonsport per Du?
+Ich wollte ganz nach oben, spuckte große Töne
+Heute mach ich Transaktionen - in Millionenhöhe
+Import, Exportund meine Ostblock Escort-Huren sehen aus wie vom Catwalk
+Es ist Sonny Black, der deutschen Rap als Geisel nimmt
+Ich hab kein Bock mit euch zu teilen, wie ein Einzelkind
+Und ich rühre keinen Finger, wenn der Preis nicht stimmt
+Werf dein Netz nicht aus, dort, wo der Haifisch schwimmt, Nutte!
+[Hook]
+Sonny Black ist der Boss und das bleibt auch so
+Ich hab für jeden von euch Hurensöhnen Blei-Patronen
+Ich bin kein kleiner Drogendealer, ich bin ein Baron
+Und ich schmier die ganze gottverdammte Polizeistation
+Sonny Black ist der Boss und das bleibt auch so
+Ich hab für jeden von euch Hurensöhnen Blei-Patronen
+Ich bin kein kleiner Drogendealer, ich bin ein Baron
+Und ich schmier die ganze gottverdammte Polizeistation</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -947,8 +1547,56 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Part 1]Ich schreibe auf, was im Ghetto passiertIch bin so extrovertiert, mein Electro Ghetto Tattoo regiertGuck mich an, wer ist cool so wie ichDer mit deiner Bitch seinen Fußboden wischtIch bleib hart, yeah, fick dein Hartz IVDer Drahtzieher sitzt beim BarbierYeah, ich bin das AlphatierUnd du wanderst in den Schredder so wie AltpapierSonny Black ist mein Alias, Niketown, AdidasAuch wenn du kein Abi hast, guck, dass du Massari machstAuf einmal ist hier jeder hartDoch du wirst rot so wie Media Markt - In meiner GegenwartYeah, ich bin ein BestsellerautorUnd du gehst unter wie beim TauchsportDie Kids glauben mir auf's Wort, weil ich ausdrücke, was ich binSuch' dir eine Brücke und dann spring![Hook]Ich bin der letzte echte Cowboy - John WayneLa Familia - Johnny FontaneMeine Freunde haben Narben im GesichtZeig' mir deine Freunde und ich sag dir, wer du bistIch bin der letzte echte Cowboy - John WayneLa Familia - Johnny FontaneMeine Freunde haben Narben im GesichtZeig' mir deine Freunde und ich sag dir, wer du bist
-[Part 2]Ich bin erbarmungslos, zieh' die Nase KoksHalt im Parkverbot, Überfall, Arme hochWaffen, Drogen, KriminalitätIch geh' in den Ruhestand, wenn Shindy Platin gehtDu schwuler Ministrant, ihr seid intrigantIch komm' mit Bazooka in die Bank, ImmigrantZehn Mille in der Jeans, keine SeltenheitSpar' dir deine Tränen und dein SelbstmitleidDu hast sowieso zu tun, was der Gangleader sagtIch komm im gepanzerten Benz wie der PapstIch bin immer noch der Junge, der das H an die Fixer verticktDein Opa wünscht sich wegen mir Hitler zurückIch bin dieser Typ mit dem ErfolgsrezeptUnd echte Männer lutschen nicht, Herr Volker BeckDeine Gang sind 101 DalmatinerIch schieß' auf deine Füße und du wirst zur Ballerina[Hook]Ich bin der letzte echte Cowboy - John WayneLa Familia - Johnny FontaneMeine Freunde haben Narben im GesichtZeig' mir deine Freunde und ich sag dir, wer du bistIch bin der letzte echte Cowboy - John WayneLa Familia - Johnny FontaneMeine Freunde haben Narben im GesichtZeig' mir deine Freunde und ich sag dir, wer du bist</t>
+          <t>[Part 1]
+Ich schreibe auf, was im Ghetto passiert
+Ich bin so extrovertiert,mein Electro Ghetto Tattoo regiert
+Guck mich an, wer ist cool so wie ich
+Der mit deiner Bitch seinen Fußboden wischt
+Ich bleib hart, yeah, fick dein Hartz IV
+Der Drahtzieher sitzt beim Barbier
+Yeah, ich bin das Alphatier
+Und du wanderst in den Schredder so wie Altpapier
+Sonny Black ist mein Alias, Niketown, Adidas
+Auch wenn du kein Abi hast, guck, dass du Massari machst
+Auf einmal ist hier jeder hartDoch du wirst rot so wie Media Markt - In meiner Gegenwart
+Yeah, ich bin ein Bestsellerautor
+Und du gehst unter wie beim Tauchsport
+Die Kids glauben mir auf's Wort, weil ich ausdrücke, was ich binSuch' dir eine Brücke und dann spring!
+[Hook]
+Ich bin der letzte echte Cowboy - John Wayne
+La Familia - Johnny Fontane
+Meine Freunde haben Narben im Gesicht
+Zeig' mir deine Freunde und ich sag dir, wer du bist
+Ich bin der letzte echte Cowboy - John Wayne
+La Familia - Johnny Fontane
+Meine Freunde haben Narben im Gesicht
+Zeig' mir deine Freunde und ich sag dir, wer du bist
+[Part 2]
+Ich bin erbarmungslos, zieh' die Nase Koks
+Halt im Parkverbot, Überfall, Arme hoch
+Waffen, Drogen, Kriminalität
+Ich geh' in den Ruhestand, wenn Shindy Platin geht
+Du schwuler Ministrant, ihr seid intrigant
+Ich komm' mit Bazooka in die Bank, Immigrant
+Zehn Mille in der Jeans, keine Seltenheit
+Spar' dir deine Tränen und dein Selbstmitleid
+Du hast sowieso zu tun, was der Gangleader sagt
+Ich komm im gepanzerten Benz wie der Papst
+Ich bin immer noch der Junge, der das H an die Fixer vertickt
+Dein Opa wünscht sich wegen mir Hitler zurück
+Ich bin dieser Typ mit dem Erfolgsrezept
+Und echte Männer lutschen nicht, Herr Volker Beck
+Deine Gang sind 101 Dalmatiner
+Ich schieß' auf deine Füße und du wirst zur Ballerina
+[Hook]
+Ich bin der letzte echte Cowboy - John Wayne
+La Familia - Johnny Fontane
+Meine Freunde haben Narben im Gesicht
+Zeig' mir deine Freunde und ich sag dir, wer du bist
+Ich bin der letzte echte Cowboy - John Wayne
+La Familia - Johnny Fontane
+Meine Freunde haben Narben im Gesicht
+Zeig' mir deine Freunde und ich sag dir, wer du bist</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1000,8 +1648,52 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Part 1]Yeah, ich bin noch immer Straße, wie am ersten TagWenn ich die Tanke stürme kriegst du einen HerzinfarktHier wird kein Märchen wahrIch mach dich zum HalbwaisenWürd so gerne deiner Junkie-Mutter in den Hals scheißenDu hängst nur mit Missgeburten ab und rauchst am Kotti CrackAber Sonny Black schlitzt dich auf, mit Hilfe von GilletteIm Mercedes Benz, der Boss der die Käfigkämpfer boxtEuer Hurensohn Label-Sampler flopptWelcher von den Fotzen-Rappern ist mit mir auf Augenhöhe?Ich bring die Drogen höchstpersönlich auf die PausenhöfeIch hab nichts übrig für dein Doubletime, du Busta RhymesIch bin dieser Messerstecher Rapper mit dem ButterflyIch hab immer was dabei, ob Koka oder CrackrocksIch verteile Headshots an Ökoboys mit DreadlocksBin der Übeltäter, auf der Jagd wie ein DüsenjägerWenn ich Lust hab fick ich ein paar Grünen-Wähler[Hook]Yeah, es gibt tausend Gründe, warum ich dich töten mussDoch der plausibelste von allen ist: wie blöd du guckstHalt die Fresse, kack dich ein, dann bleibst du unversehrtIch komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wärYeah, es gibt tausend Gründe, warum ich dich töten mussDoch der plausibelste von allen ist: wie blöd du guckstHalt die Fresse, kack dich ein, dann bleibst du unversehrtIch komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wär
-[Part 2]Ich sollte Heino mal die Brille aus der Fresse prügelnDann darf der Bastard in meinem Keller meine Wäsche bügelnDenn wenn der Kuchen spricht müssen die Krümel schweigenSonst muss ich mit Stühlen schmeißen oder mit dem BügeleisenIhr seid alle frech gewesen, ich bin zu relaxed gewesenHabt mir keinen Respekt gegeben, ab sofort ist Stress mit JedemDu willst mein Geschäft wegnehmen? Finger weg, du Fotze!Hurensöhne spielen jetzt im Internet die BosseMachen mir auf Ehrenmänner, selbstgeschafft und heldenhaftIch bin hier der Einzige, der irgendwas zu melden hatIch bin Sonny Black, das ist der Pate Teil 4Du willst Straße sein, ich füll dir deinen Arsch mit Blei, yeahRapper haben Eier mich im Internet zu dissenAber rufen bei uns an und weinen hinter den KulissenDoch alles kommt zu seiner Zeit, Nutte sei bereitDeutschen Rap zu ficken ist so einfach, wie das Ein mal Eins[Hook]Yeah, es gibt tausend Gründe, warum ich dich töten mussDoch der plausibelste von allen ist: wie blöd du guckstHalt die Fresse, kack dich ein, dann bleibst du unversehrtIch komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wärYeah, es gibt tausend Gründe, warum ich dich töten mussDoch der plausibelste von allen ist: wie blöd du guckstHalt die Fresse, kack dich ein, dann bleibst du unversehrtIch komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wär</t>
+          <t>[Part 1]
+Yeah, ich bin noch immer Straße, wie am ersten Tag
+Wenn ich die Tanke stürme kriegst du einen Herzinfarkt
+Hier wird kein Märchen wahr
+Ich mach dich zum Halbwaisen
+Würd so gerne deiner Junkie-Mutter in den Hals scheißen
+Du hängst nur mit Missgeburten ab und rauchst am Kotti Crack
+Aber Sonny Black schlitzt dich auf, mit Hilfe von Gillette
+Im Mercedes Benz, der Boss der die Käfigkämpfer boxt
+Euer Hurensohn Label-Sampler floppt
+Welcher von den Fotzen-Rappern ist mit mir auf Augenhöhe?
+Ich bring die Drogen höchstpersönlich auf die Pausenhöfe
+Ich hab nichts übrig für dein Doubletime, du Busta RhymesIch bin dieser Messerstecher Rapper mit dem Butterfly
+Ich hab immer was dabei, ob Koka oder Crackrocks
+Ich verteile Headshots an Ökoboys mit Dreadlocks
+Bin der Übeltäter, auf der Jagd wie ein Düsenjäger
+Wenn ich Lust hab fick ich ein paar Grünen-Wähler
+[Hook]
+Yeah, es gibt tausend Gründe, warum ich dich töten muss
+Doch der plausibelste von allen ist: wie blöd du guckst
+Halt die Fresse, kack dich ein, dann bleibst du unversehrt
+Ich komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wär
+Yeah, es gibt tausend Gründe, warum ich dich töten mussDoch der plausibelste von allen ist: wie blöd du guckst
+Halt die Fresse, kack dich ein, dann bleibst du unversehrt
+Ich komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wär
+[Part 2]
+Ich sollte Heino mal die Brille aus der Fresse prügelnDann darf der Bastard in meinem Keller meine Wäsche bügelnDenn wenn der Kuchen spricht müssen die Krümel schweigen
+Sonst muss ich mit Stühlen schmeißen oder mit dem Bügeleisen
+Ihr seid alle frech gewesen, ich bin zu relaxed gewesenHabt mir keinen Respekt gegeben, ab sofort ist Stress mit Jedem
+Du willst mein Geschäft wegnehmen? Finger weg, du Fotze!
+Hurensöhne spielen jetzt im Internet die Bosse
+Machen mir auf Ehrenmänner, selbstgeschafft und heldenhaft
+Ich bin hier der Einzige, der irgendwas zu melden hat
+Ich bin Sonny Black,das ist der Pate Teil 4
+Du willst Straße sein, ich füll dir deinen Arsch mit Blei, yeah
+Rapper haben Eier mich im Internet zu dissenAber rufen bei uns an und weinen hinter den Kulissen
+Doch alles kommt zu seiner Zeit, Nutte sei bereit
+Deutschen Rap zu ficken ist so einfach, wie das Ein mal Eins
+[Hook]
+Yeah, es gibt tausend Gründe, warum ich dich töten mussDoch der plausibelste von allen ist: wie blöd du guckst
+Halt die Fresse, kack dich ein, dann bleibst du unversehrt
+Ich komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wär
+Yeah, es gibt tausend Gründe, warum ich dich töten muss
+Doch der plausibelste von allen ist: wie blöd du guckst
+Halt die Fresse, kack dich ein, dann bleibst du unversehrt
+Ich komm nicht drauf klar wenn einer denkt dass er 'ne Nummer wär</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1053,8 +1745,54 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Part 1]Ah, yeahDu weißt bescheid NutteWie es macht, wenn ich Blei spucke - Drive-By MuckeEs ist Sonny Black, Gangster gehen draufDenn für ein paar Scheine löscht man hier ein Menschenleben aus, yeahIch mach Drogenschmuggel, ich mach WaffendealsUnd ich mach, dass immer Kohle in die Kassen fließtNutte ich bin straight und ich lasse nicht verhandelnIch ficke deine Tanten, alle weiblichen VerwandtenIch steh bewaffnet vor der Wohnung deiner OmaIch weiß du bunkerst dort dein Koka unterm SofaIch knack den Jackpot, ich dreh' die krummen DingerIch sperr Prinz Marcus mit 'nem Napf in meinen HundezwingerEs ist Sonny Black, yeah, Public EnemyDeine Mutter hängt bei mir am Telefon, wie EmoryDu erzählst den Medien du warst einmal Bushido-SklaveZahl mal lieber deine Schulden ab, du Mietnomade[Hook]Es gibt Opfer, es gibt Täter, hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!Ihr seid alle meine Gegner, fick die Lehrer und die StreberUnd der Baseballschläger macht dir Angst, yeah!Es gibt Opfer, es gibt Täter, hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!Ihr seid alle meine Gegner, fick die Lehrer und die StreberUnd der Baseballschläger macht dir Angst, yeah!
-[Part 2]Gangsterrap-Titan, yeah, bin Legende wie ZidaneUnd lege deine Gangmitglieder lahmIch bin noch immer down mit den StraßenschlägernWesterwelle kriegt 'nen Job bei mir als RasenmäherUnd ja, ich prügel mit dem WagenheberBis du Platzwunden kriegstFick deine acht Stunden Schicht, yeahIch scheiß auf alles und ich nehme keinen ernstDurchlöcher dich als ob du eine Käsescheibe wärstIch bleibe hart und dein Arsch geht auf GrundeisChihahuas bellen, aber wenn der Kampfhund beißtDann ist für Rosenstolz endgültig Game OverEins, zwei, drei Schüsse aus dem Range RoverVier, fünf, sechs Bullen kommen im HelikopterBrillenschlangen kommen angeflogen - Harry PotterIch bin skrupellos und kenne keine HemmschwelleGuck mal, wie ich deine Fresse entstelle, yeah[Hook]Es gibt Opfer, es gibt Täter, hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!Ihr seid alle meine Gegner, fick die Lehrer und die StreberUnd der Baseballschläger macht dir Angst, yeah!Es gibt Opfer, es gibt Täter, hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!Ihr seid alle meine Gegner, fick die Lehrer und die StreberUnd der Baseballschläger macht dir Angst, yeah!</t>
+          <t>[Part 1]
+Ah, yeah
+Du weißt bescheid Nutte
+Wie es macht, wenn ich Blei spucke - Drive-By Mucke
+Es ist Sonny Black, Gangster gehen drauf
+Denn für ein paar Scheine löscht man hier ein Menschenleben aus, yeah
+Ich mach Drogenschmuggel, ich mach Waffendeals
+Und ich mach, dass immer Kohle in die Kassen fließt
+Nutte ich bin straight und ich lasse nicht verhandeln
+Ich ficke deine Tanten, alle weiblichen Verwandten
+Ich steh bewaffnet vor der Wohnung deiner Oma
+Ich weiß du bunkerst dort dein Koka unterm Sofa
+Ich knack den Jackpot, ich dreh' die krummen Dinger
+Ich sperr Prinz Marcus mit 'nem Napf in meinen Hundezwinger
+Es ist Sonny Black, yeah, Public Enemy
+Deine Mutter hängt bei mir am Telefon, wie Emory
+Du erzählst den Medien du warst einmal Bushido-SklaveZahl mal lieber deine Schulden ab, du Mietnomade
+[Hook]
+Es gibt Opfer, es gibt Täter,hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!
+Ihr seid alle meine Gegner, fick die Lehrer und die Streber
+Und der Baseballschläger macht dir Angst, yeah!
+Es gibt Opfer, es gibt Täter,hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!
+Ihr seid alle meine Gegner, fick die Lehrer und die Streber
+Und der Baseballschläger macht dir Angst, yeah!
+[Part 2]
+Gangsterrap-Titan, yeah, bin Legende wie Zidane
+Und lege deine Gangmitglieder lahm
+Ich bin noch immer down mit den Straßenschlägern
+Westerwelle kriegt 'nen Job bei mir als Rasenmäher
+Und ja, ich prügel mit dem Wagenheber
+Bis du Platzwunden kriegst
+Fick deine acht Stunden Schicht, yeah
+Ich scheiß auf alles und ich nehme keinen ernst
+Durchlöcher dich als ob du eine Käsescheibe wärst
+Ich bleibe hart und dein Arsch geht auf Grundeis
+Chihahuas bellen, aber wenn der Kampfhund beißtDann ist für Rosenstolz endgültig Game Over
+Eins, zwei, drei Schüsse aus dem Range Rover
+Vier, fünf, sechs Bullen kommen im Helikopter
+Brillenschlangen kommen angeflogen - Harry Potter
+Ich bin skrupellos und kenne keine Hemmschwelle
+Guck mal, wie ich deine Fresse entstelle, yeah
+[Hook]
+Es gibt Opfer, es gibt Täter, hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!
+Ihr seid alle meine Gegner, fick die Lehrer und die Streber
+Und der Baseballschläger macht dir Angst, yeah!
+Es gibt Opfer, es gibt Täter, hab 'ne neun MillimeterIn der Jeans, alle Hater lutschen Schwanz, yeah!
+Ihr seid alle meine Gegner, fick die Lehrer und die Streber
+Und der Baseballschläger macht dir Angst, yeah!</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1106,9 +1844,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Songtext zu „AMG“ ft. Shindy][Shindy]Mein AMG ist gepanzert wie ein Ninja TurtleDie Kippe brennt den ganzen Tag, nenn mich Winston ChurchillErsguterjunge - Dean Martin - Frank SinatraIch bin Benz Liebhaber, deine Latina Bitch macht mir Enchilada[Bushido]Sonny Black, back am Block, Skimaske aufRück die Brieftasche raus, gib mir die Kasse auchEs ist hardcore, EGJ Task-ForceAMG HMP-Heavy Metal Payback[Shindy]Ich will alles asap, dikka ich will Geld fließen sehenUnd nicht so wie du für wenig Geld Fliesen legenAlter Weltfrieden wayne, ich will Scampi und LinguineIch komm im Geländewagen[Bushido]Sonny in der LimousineBusinessmann wie der Pate, küss die Hand, VisakarteLieferware, Drogenübergabe in der TiefgarageTätowierung, Ghetto Hero, Gangsta Rap King
-[Shindy]Und der Grund warum der Ladyboy vom Fensterbrett springtIch bin schärfer als ne Blu-Ray, Hip-Hop HoorrayJordan 11er cool grey - Import - UKNikotin Junkie, Givenchy JunkieBitch bügel mein Kenzo-Sweater, ich bin kein Gangster Rapper[Bushido]Ich bin ein Gangster Rapper, ficke deine DiskothekFick Moët, es geht Faustschlag und Gesichts OPSpeed oder Tilidin, ich hab Street CredibiltyUnd tanze nicht zu Beat it und Billie JeanBox dich in die 60s[Shindy]Bitch please, StripteaseMach nicht auf Alicia Keys, Bitch ich bin nicht Swizz BeatzNutte ich bin Pharao, umgeben von CleopatrasIn der neunten blieb ich einfach sitzen so wie Rosa Parks[Bushido]Ich häng nicht auf Poker Stars, ich häng in der YorckstraßeIch steiger die Mordrate, Fresse jetzt du ChorknabeSo etwas wie dich nennen meine Jungs und ich SharmutaWas ich hab? Ich hab ich hab Geld wie Richard Lugner
-[Samples]Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintIhr seid alle gegen Action dann kommt nicht in meine StadtEs sind, es sind dreißig Grad, trotzdem trag ich meine LederjackeCordon Sport Massenmord, jetzt ist Krieg ab sofort!Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintIhr seid alle gegen Action dann kommt nicht in meine StadtEs sind, es sind dreißig Grad, trotzdem trag ich meine LederjackeCordon Sport Massenmord, jetzt ist Krieg ab sofort!</t>
+          <t>[Songtext zu „AMG“ ft. Shindy]
+[Shindy]
+Mein AMG ist gepanzert wie ein Ninja Turtle
+Die Kippe brennt den ganzen Tag, nenn mich Winston Churchill
+Ersguterjunge - Dean Martin - Frank Sinatra
+Ich bin Benz Liebhaber,deine Latina Bitch macht mir Enchilada
+[Bushido]
+Sonny Black, back am Block,Skimaske auf
+Rück die Brieftasche raus, gib mir die Kasse auch
+Es ist hardcore, EGJ Task-ForceAMG HMP-Heavy Metal Payback
+[Shindy]
+Ich will alles asap, dikka ich will Geld fließen sehen
+Und nicht so wie du für wenig Geld Fliesen legen
+Alter Weltfrieden wayne,ich will Scampi und Linguine
+Ich komm im Geländewagen
+[Bushido]
+Sonny in der Limousine
+Businessmann wie der Pate, küss die Hand, Visakarte
+Lieferware, Drogenübergabe in der Tiefgarage
+Tätowierung,Ghetto Hero,Gangsta Rap King
+[Shindy]
+Und der Grund warum der Ladyboy vom Fensterbrett springt
+Ich bin schärfer als ne Blu-Ray,Hip-Hop Hoorray
+Jordan 11er cool grey - Import - UK
+Nikotin Junkie,Givenchy JunkieBitch bügel mein Kenzo-Sweater, ich bin kein Gangster Rapper
+[Bushido]
+Ich bin ein Gangster Rapper, ficke deine DiskothekFick Moët, es geht Faustschlag und Gesichts OP
+Speed oder Tilidin,ich hab Street Credibilty
+Und tanze nicht zu Beat it und Billie Jean
+Box dich in die 60s
+[Shindy]
+Bitch please, StripteaseMach nicht auf Alicia Keys, Bitch ich bin nicht Swizz Beatz
+Nutte ich bin Pharao, umgeben von Cleopatras
+In der neunten blieb ich einfach sitzen so wie Rosa Parks
+[Bushido]
+Ich häng nicht auf Poker Stars, ich häng in der Yorckstraße
+Ich steiger die Mordrate, Fresse jetzt du ChorknabeSo etwas wie dich nennen meine Jungs und ich Sharmuta
+Was ich hab? Ich hab ich hab Geld wie Richard Lugner
+[Samples]
+Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintIhr seid alle gegen Action dann kommt nicht in meine StadtEs sind, es sind dreißig Grad, trotzdem trag ich meine LederjackeCordon Sport Massenmord, jetzt ist Krieg ab sofort!
+Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintIhr seid alle gegen Action dann kommt nicht in meine StadtEs sind, es sind dreißig Grad, trotzdem trag ich meine LederjackeCordon Sport Massenmord, jetzt ist Krieg ab sofort!</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1160,9 +1936,74 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Part 1]Denn ich war nie ein RapperIch hab mir alles selber beigebrachtBeigebracht, wie man Gold aus dieser Scheiße machtGuck mich jetzt an, 8 Jahre später, MannIch mach' das mein Leben langHatte schlaflose Nächte, kein Plan für den nächsten TagHier weint dir keiner eine Träne nachWir sind die Unterschicht, Kinder ohne WerdegangWir greifen einmal nach den Sternen und sterben dannSo ist das Leben, es lässt dich abstumpfenAll die Rückschläge fühlen sich an wie PlatzwundenUnd wenn ich die Bewährungshelferin box'Schüttelt meine Strafanwältin den KopfIch war nie ein Rapper, weil ich keine Märchen erzähl'Man hat Ziele, doch die meisten werden verfehltUnd seit 1987 wollt' ich sein wie Gordon GekkoIhr habt alle reiche Eltern und sagt Deutschland hat kein Ghetto[Hook]Denn ich war nie ein Rapper, ich hab für die Straße gekämpftUnd Mama spürt mit jeder Zeile, dass ich grad' an sie denk'Denn ich war nie ein Rapper, ich wollt' niemals anständig seinIch hab' Beton in meiner Brust, deswegen kann ich nicht weinenDenn ich war nie ein Rapper, ich hab für die Straße gekämpftUnd Mama spürt mit jeder Zeile, dass ich grad' an sie denk'Denn ich war nie ein Rapper, ich wollt' niemals anständig seinIch hab' Beton in meiner Brust, deswegen kann ich nicht weinen
-[Part 2]Denn ich war nie ein Rapper, ich war nie ein schwuler StudentUnd heute nimmt der Junge trotzdem statt der U-Bahn den BenzIch danke nur meinen FansDenn wo ich herkomme, kriegst du garantiert kein Stück von diesem Kuchen geschenktIch hab' ein Image kreiertUnd hab' mich niemals integriertDenn ich bin nicht wie ihrUnd heute hab ich's geschafftDas ganze Geld, das ich verdiene, ist für mich sowas wie SchadenersatzIch hab' was besseres zu tun als mit Reportern zu redenDie am Ende sowieso nur meine Worte verdrehenMir ist egal, was ihr wolltIch bin kein Junge mehr und weiß mit Sicherheit, meine Mama ist stolzAlles macht einen Sinn, ich hab mein Lachen zurückIch hab geweint, die Angst, sie macht dich verrücktUnd vielleicht hatte ich GlückIch bin einer von denen, die heute sagen können "Kopf hoch, die Scheiße vergeht"[Hook]Denn ich war nie ein Rapper, ich hab für die Straße gekämpftUnd Mama spürt mit jeder Zeile, dass ich grad' an sie denk'Denn ich war nie ein Rapper, ich wollt' niemals anständig seinIch hab' Beton in meiner Brust, deswegen kann ich nicht weinenDenn ich war nie ein Rapper, ich hab für die Straße gekämpftUnd Mama spürt mit jeder Zeile, dass ich grad' an sie denk'Denn ich war nie ein Rapper, ich wollt' niemals anständig seinIch hab' Beton in meiner Brust, deswegen kann ich nicht weinen
-[Part 3]Denn ich war nie ein Rapper, ich bin auf'm Boden gebliebenMusste Drogen dealen und hab keine Strophe geschriebenDenn ich war nie ein Rapper, ihr seid nur Köter, die bellenSie verlieren ihren Mut und sie töten sich selbstDenn ich war nie ein Rapper, weil ich keine kleinen Kiffer kenn'Ich bin Berliner, wer ist 50 Cent?Denn ich war nie ein Rapper und bin es immer noch nichtIch wollt' nie anders werden, kuck, ich bin immer noch ich[Hook]Denn ich war nie ein Rapper, ich hab für die Straße gekämpftUnd Mama spürt mit jeder Zeile, dass ich grad' an sie denk'Denn ich war nie ein Rapper, ich wollt' niemals anständig seinIch hab' Beton in meiner Brust, deswegen kann ich nicht weinenDenn ich war nie ein Rapper, ich hab für die Straße gekämpftUnd Mama spürt mit jeder Zeile, dass ich grad' an sie denk'Denn ich war nie ein Rapper, ich wollt' niemals anständig seinIch hab' Beton in meiner Brust, deswegen kann ich nicht weinen</t>
+          <t>[Part 1]
+Denn ich war nie ein RapperIch hab mir alles selber beigebracht
+Beigebracht, wie man Gold aus dieser Scheiße macht
+Guck mich jetzt an, 8 Jahre später, Mann
+Ich mach' das mein Leben lang
+Hatte schlaflose Nächte, kein Plan für den nächsten Tag
+Hier weint dir keiner eine Träne nach
+Wir sind die Unterschicht, Kinder ohne Werdegang
+Wir greifen einmal nach den Sternen und sterben dann
+So ist das Leben, es lässt dich abstumpfen
+All die Rückschläge fühlen sich an wie Platzwunden
+Und wenn ich die Bewährungshelferin box'
+Schüttelt meine Strafanwältin den Kopf
+Ich war nie ein Rapper, weil ich keine Märchen erzähl'
+Man hat Ziele, doch die meisten werden verfehlt
+Und seit 1987 wollt' ich sein wie Gordon Gekko
+Ihr habt alle reiche Eltern und sagt Deutschland hat kein Ghetto
+[Hook]
+Denn ich war nie ein Rapper, ich hab für die Straße gekämpft
+Und Mama spürt mit jeder Zeile, dass ich grad' an sie denk'
+Denn ich war nie ein Rapper, ich wollt' niemals anständig sein
+Ich hab' Beton in meiner Brust, deswegen kann ich nicht weinen
+Denn ich war nie ein Rapper, ich hab für die Straße gekämpft
+Und Mama spürt mit jeder Zeile, dass ich grad' an sie denk'
+Denn ich war nie ein Rapper, ich wollt' niemals anständig sein
+Ich hab' Beton in meiner Brust, deswegen kann ich nicht weinen
+[Part 2]
+Denn ich war nie ein Rapper, ich war nie ein schwuler StudentUnd heute nimmt der Junge trotzdem statt der U-Bahn den Benz
+Ich danke nur meinen Fans
+Denn wo ich herkomme, kriegst du garantiert kein Stück von diesem Kuchen geschenkt
+Ich hab' ein Image kreiert
+Und hab' mich niemals integriert
+Denn ich bin nicht wie ihr
+Und heute hab ich's geschafft
+Das ganze Geld, das ich verdiene, ist für mich sowas wie Schadenersatz
+Ich hab' was besseres zu tun als mit Reportern zu reden
+Die am Ende sowieso nur meine Worte verdrehen
+Mir ist egal, was ihr wollt
+Ich bin kein Junge mehr und weiß mit Sicherheit, meine Mama ist stolz
+Alles macht einen Sinn, ich hab mein Lachen zurück
+Ich hab geweint, die Angst, sie macht dich verrückt
+Und vielleicht hatte ich Glück
+Ich bin einer von denen, die heute sagen können "Kopf hoch, die Scheiße vergeht"
+[Hook]
+Denn ich war nie ein Rapper, ich hab für die Straße gekämpft
+Und Mama spürt mit jeder Zeile, dass ich grad' an sie denk'
+Denn ich war nie ein Rapper, ich wollt' niemals anständig sein
+Ich hab' Beton in meiner Brust, deswegen kann ich nicht weinen
+Denn ich war nie ein Rapper, ich hab für die Straße gekämpft
+Und Mama spürt mit jeder Zeile, dass ich grad' an sie denk'
+Denn ich war nie ein Rapper, ich wollt' niemals anständig sein
+Ich hab' Beton in meiner Brust, deswegen kann ich nicht weinen
+[Part 3]
+Denn ich war nie ein Rapper, ich bin auf'm Boden gebliebenMusste Drogen dealen und hab keine Strophe geschrieben
+Denn ich war nie ein Rapper, ihr seid nur Köter, die bellen
+Sie verlieren ihren Mut und sie töten sich selbst
+Denn ich war nie ein Rapper, weil ich keine kleinen Kiffer kenn'
+Ich bin Berliner, wer ist 50 Cent?
+Denn ich war nie ein Rapper und bin es immer noch nichtIch wollt' nie anders werden, kuck, ich bin immer noch ich
+[Hook]
+Denn ich war nie ein Rapper, ich hab für die Straße gekämpft
+Und Mama spürt mit jeder Zeile, dass ich grad' an sie denk'
+Denn ich war nie ein Rapper, ich wollt' niemals anständig sein
+Ich hab' Beton in meiner Brust, deswegen kann ich nicht weinen
+Denn ich war nie ein Rapper, ich hab für die Straße gekämpft
+Und Mama spürt mit jeder Zeile, dass ich grad' an sie denk'
+Denn ich war nie ein Rapper, ich wollt' niemals anständig sein
+Ich hab' Beton in meiner Brust, deswegen kann ich nicht weinen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1214,9 +2055,56 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Hook]Es macht klick klack badabada klick klack Boom!Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein HaifischDann frag' mal Olli Pocher nach dem Polizeigriff, yeahEs macht klick klack badabada klick klack Boom!Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein HaifischDann frag' mal Olli Pocher nach dem Polizeigriff, yeah[Part 1]Kann nicht sein wie ihr Fickfehler rapptIch brauche keinen Reim, um dich zu ficken du MissgeburtImmer noch die selben schwulen Kiffer wie vor 10 JahrenSamy war schon obdachlos zu Zeiten der D-MarkIch nehm' dein Skateboard du GaylordUnd schlag' es gegen deinen Kopf als wär' er ein BaseballJa, es stimmt, ich hab GewaltfantasienUnd halte deinen Vater an 'nem Halsband auf KnienSonny Black ComebackWer von euch will Ärger machen?Wenn ich rappe, kriegen deine Großeltern HerzattackenLass mal treffen, AlexanderplatzDu gehst nach Hause mit 'ner Fresse voller HansaplastSie haben Sonny auf dem Kieker - KriPoKay und Olliwood bei Dieter - DeepthroatUnd das hier ist kein Beethoven-StückZu diesem Song hier wird Mateo gefickt
-[Hook]Es macht klick klack badabada klick klack Boom!Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein HaifischDann frag' mal Olli Pocher nach dem Polizeigriff, yeahEs macht klick klack badabada klick klack Boom!Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein HaifischDann frag' mal Olli Pocher nach dem Polizeigriff, yeah[Part 2]Mit jedem Takt macht der Drogendealer GeldIch will, dass Markus Lanz auf dem Boden kniet und belltÜberall sind die Abou-Chakers ThemaSie sagen, wir sind die NackenklatschergeberIch pöbel für mein Leben gernDas hier ist mein LebenswerkYeah, Sonny Black, legendärIch bin wieder auf dem Carlo Gangster Ego TripTerrorist, in der Präsidentensuite mit MeeresblickIhr seid alles Opfer und ich ficke eure VideoblogsMüsst ihr selbst nicht kotzen, wenn ihr in den Spiegel glotztSie zitieren meine Zeilen so wie alte SprichwörterDu bist wie Olivia Jones, ein ekliger MistkörperUnd schöne Grüße an Georgina diesen JunkieWürde ihr so gern eins überziehen mit meinem BambiWir sind der Pöbel aus dem Ghetto, schreib' die ZeitungAuf Wiedersehen bei der nächsten Echo-Preisverleihung
-[Hook]Es macht klick klack badabada klick klack Boom!Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein HaifischDann frag' mal Olli Pocher nach dem Polizeigriff, yeahEs macht klick klack badabada klick klack Boom!Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein HaifischDann frag' mal Olli Pocher nach dem Polizeigriff, yeah</t>
+          <t>[Hook]
+Es macht klick klack badabada klick klack Boom!
+Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein Haifisch
+Dann frag' mal Olli Pocher nach dem Polizeigriff, yeah
+Es macht klick klack badabada klick klack Boom!
+Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein Haifisch
+Dann frag' mal Olli Pocher nach dem Polizeigriff, yeah
+[Part 1]
+Kann nicht sein wie ihr Fickfehler rapptIch brauche keinen Reim, um dich zu ficken du Missgeburt
+Immer noch die selben schwulen Kiffer wie vor 10 JahrenSamy war schon obdachlos zu Zeiten der D-MarkIch nehm' dein Skateboard du Gaylord
+Und schlag' es gegen deinen Kopf als wär' er ein BaseballJa, es stimmt, ich hab GewaltfantasienUnd halte deinen Vater an 'nem Halsband auf Knien
+Sonny Black Comeback
+Wer von euch will Ärger machen?
+Wenn ich rappe, kriegen deine Großeltern Herzattacken
+Lass mal treffen, Alexanderplatz
+Du gehst nach Hause mit 'ner Fresse voller Hansaplast
+Sie haben Sonny auf dem Kieker - KriPo
+Kay und Olliwood bei Dieter - Deepthroat
+Und das hier ist kein Beethoven-StückZu diesem Song hier wird Mateo gefickt
+[Hook]
+Es macht klick klack badabada klick klack Boom!
+Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein Haifisch
+Dann frag' mal Olli Pocher nach dem Polizeigriff, yeah
+Es macht klick klack badabada klick klack Boom!
+Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein Haifisch
+Dann frag' mal Olli Pocher nach dem Polizeigriff, yeah
+[Part 2]
+Mit jedem Takt macht der Drogendealer Geld
+Ich will, dass Markus Lanz auf dem Boden kniet und bellt
+Überall sind die Abou-Chakers Thema
+Sie sagen, wir sind die Nackenklatschergeber
+Ich pöbel für mein Leben gern
+Das hier ist mein Lebenswerk
+Yeah, Sonny Black, legendär
+Ich bin wieder auf dem Carlo Gangster Ego Trip
+Terrorist, in der Präsidentensuite mit Meeresblick
+Ihr seid alles Opfer und ich ficke eure Videoblogs
+Müsst ihr selbst nicht kotzen, wenn ihr in den Spiegel glotzt
+Sie zitieren meine Zeilen so wie alte Sprichwörter
+Du bist wie Olivia Jones, ein ekliger Mistkörper
+Und schöne Grüße an Georgina diesen JunkieWürde ihr so gern eins überziehen mit meinem Bambi
+Wir sind der Pöbel aus dem Ghetto, schreib' die Zeitung
+Auf Wiedersehen bei der nächsten Echo-Preisverleihung
+[Hook]
+Es macht klick klack badabada klick klack Boom!
+Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein Haifisch
+Dann frag' mal Olli Pocher nach dem Polizeigriff, yeah
+Es macht klick klack badabada klick klack Boom!
+Ich fick euch alle, nur dass ihr Bescheid wisstDu hast eine große Fresse wie ein Haifisch
+Dann frag' mal Olli Pocher nach dem Polizeigriff, yeah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1268,9 +2156,66 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Hook]Sonny setzt sich wieder seine Sturmmaske aufKommt auf dein Konzert, räumt die Tourkasse ausPapi ist ein Arzt und Abitur haste auchIch komm' zur Klausur und raste aus, yeahSonny setzt sich wieder seine Sturmmaske aufKommt auf dein Konzert, räumt die Tourkasse ausPapi ist ein Arzt und Abitur haste auchIch komm' zur Klausur und raste aus, yeah[Part 1]Gangsterrap-Hooligan, UnruhestifterSchöne Grüße gegen raus an Mundstuhl, die ZwitterGays wie Paul Kalkbrenner, ihr seid Halb-MännerHunde, so wie euch, legen meine Jungs an HalsbänderKay ist noch tuntiger als Billy bei BohlenDoch die größten Tucken sitzen in der Bildredaktion (Yeah)Manche Dinge müssen mal gesagt werdenDrive-By und ihr verblutet in den GlasscherbenSonny macht den Amoklauf, mit der PanzerfaustUnd ich häng' die ganzen Rapper an den Tangas aufFick mit deiner Mutter, aber fick nicht mit dem GangsterIch bin drauf und boxe paar Studenten in der MensaCCN Flavour, Mercedes-Benz-LederSitze, Wurzelholzlehne in der MitteIch mach' 'ne Million mit 'ner Platte voller PunchlinesUnd dein Arsch wird gegrillt wie das Lammfleisch
-[Hook]Sonny setzt sich wieder seine Sturmmaske aufKommt auf dein Konzert, räumt die Tourkasse ausPapi ist ein Arzt und Abitur haste auchIch komm' zur Klausur und raste aus, yeahSonny setzt sich wieder seine Sturmmaske aufKommt auf dein Konzert, räumt die Tourkasse ausPapi ist ein Arzt und Abitur haste auchIch komm' zur Klausur und raste aus, yeah[Part 2]Dein wertloses Leben hängt am seidenen FadenIch zwinge deine Schwester, mir jetzt einen zu blasenEs ist ganz normal, Frauen lutschen meinen SchwanzIch war noch nie verliebt und halte Nutten auf DistanzEs ist Sonny Black, der Chef, yeah - King of Kingz MythosCarlo Cokxxx Nutten III ist das deutsche DetoxIch häng' nicht mit Männern 'rum, die kochen und putzenFür mich seid ihr alles kleine Fotzen und NuttenMein Leben, meine RegelnUnd ich lass' es über deinem Bonzenviertel heute Scheiße regnenSchick' den Treffpunkt per SMS, Sonny kommt im SLSRap ist Männersache, ich fick' Schwester SBerlin, das hier ist nicht Beverly HillsIch ficke jeden Hurensohn, der mit Emory chilltIch ficke jeden Hurensohn, der mit Kay was zu tun hatNur schwule Hurensöhne tragen Make-up du Judas
-[Hook]Sonny setzt sich wieder seine Sturmmaske aufKommt auf dein Konzert, räumt die Tourkasse ausPapi ist ein Arzt und Abitur haste auchIch komm' zur Klausur und raste aus, yeahSonny setzt sich wieder seine Sturmmaske aufKommt auf dein Konzert, räumt die Tourkasse ausPapi ist ein Arzt und Abitur haste auchIch komm' zur Klausur und raste aus, yeah</t>
+          <t>[Hook]
+Sonny setzt sich wieder seine Sturmmaske auf
+Kommt auf dein Konzert, räumt die Tourkasse aus
+Papi ist ein Arzt und Abitur haste auch
+Ich komm' zur Klausur und raste aus, yeah
+Sonny setzt sich wieder seine Sturmmaske auf
+Kommt auf dein Konzert, räumt die Tourkasse aus
+Papi ist ein Arzt und Abitur haste auch
+Ich komm' zur Klausur und raste aus, yeah
+[Part 1]
+Gangsterrap-Hooligan, Unruhestifter
+Schöne Grüße gegen raus an Mundstuhl, die Zwitter
+Gays wie Paul Kalkbrenner, ihr seid Halb-Männer
+Hunde, so wie euch, legen meine Jungs an Halsbänder
+Kay ist noch tuntiger als Billy bei Bohlen
+Doch die größten Tucken sitzen in der Bildredaktion (Yeah)
+Manche Dinge müssen mal gesagt werden
+Drive-By und ihr verblutet in den Glasscherben
+Sonny macht den Amoklauf, mit der Panzerfaust
+Und ich häng' die ganzen Rapper an den Tangas auf
+Fick mit deiner Mutter, aber fick nicht mit dem Gangster
+Ich bin drauf und boxe paar Studenten in der Mensa
+CCN Flavour, Mercedes-Benz-Leder
+Sitze, Wurzelholzlehne in der Mitte
+Ich mach' 'ne Million mit 'ner Platte voller PunchlinesUnd dein Arsch wird gegrillt wie das Lammfleisch
+[Hook]
+Sonny setzt sich wieder seine Sturmmaske auf
+Kommt auf dein Konzert, räumt die Tourkasse aus
+Papi ist ein Arzt und Abitur haste auch
+Ich komm' zur Klausur und raste aus, yeah
+Sonny setzt sich wieder seine Sturmmaske auf
+Kommt auf dein Konzert, räumt die Tourkasse aus
+Papi ist ein Arzt und Abitur haste auch
+Ich komm' zur Klausur und raste aus, yeah
+[Part 2]
+Dein wertloses Leben hängt am seidenen Faden
+Ich zwinge deine Schwester, mir jetzt einen zu blasen
+Es ist ganz normal, Frauen lutschen meinen Schwanz
+Ich war noch nie verliebt und halte Nutten auf Distanz
+Es ist Sonny Black, der Chef, yeah - King of Kingz Mythos
+Carlo Cokxxx Nutten III ist das deutsche Detox
+Ich häng' nicht mit Männern 'rum, die kochen und putzen
+Für mich seid ihr alles kleine Fotzen und Nutten
+Mein Leben, meine Regeln
+Und ich lass' es über deinem Bonzenviertel heute Scheiße regnen
+Schick' den Treffpunkt per SMS, Sonny kommt im SLS
+Rap ist Männersache, ich fick' Schwester S
+Berlin, das hier ist nicht Beverly Hills
+Ich ficke jeden Hurensohn, der mit Emory chillt
+Ich ficke jeden Hurensohn, der mit Kay was zu tun hat
+Nur schwule Hurensöhne tragen Make-up du Judas
+[Hook]
+Sonny setzt sich wieder seine Sturmmaske auf
+Kommt auf dein Konzert, räumt die Tourkasse aus
+Papi ist ein Arzt und Abitur haste auch
+Ich komm' zur Klausur und raste aus, yeah
+Sonny setzt sich wieder seine Sturmmaske auf
+Kommt auf dein Konzert, räumt die Tourkasse aus
+Papi ist ein Arzt und Abitur haste auch
+Ich komm' zur Klausur und raste aus, yeah</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1322,8 +2267,51 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Hook]Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die LobbyMerkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißtGuten Tag, ihr scheiß Bullen, sagt goodbyeNutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die LobbyMerkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißtGuten Tag, ihr scheiß Bullen, sagt goodbye[Part 1]Der Knight Rider, Nutte, ich bin leicht reizbarFick die Presse, alles Pickelfressen - SchweinsteigerMultikriminell, die Bullen riechen GeldFasst du mich noch einmal an, werd' ich zu Wolverine, du KelbMit mir kann man keine Späßchen machen, kann man keine Pferde stehlen„Der mit dem“ und „Wer verkehrt mit wem?“ kann ich nicht ernst nehmenHalt die Fresse, setz dich hin und zeig RespektIch bin immer noch der King in meinem GeschäftSonny Black ist der Boss und daran wird sich nichts ändernDu hängst an den Eiern, ich mit BänkernWas glotzt du meinen Benz an?Der Hurensohn von Stern macht auf EnthüllungsjournalistDoch ich hole aus und box' ihm seine Brille ins Gesicht[Hook]Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die LobbyMerkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißtGuten Tag, ihr scheiß Bullen, sagt goodbyeNutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die LobbyMerkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißtGuten Tag, ihr scheiß Bullen, sagt goodbye
-[Part 2]Ich hab mit dieser Szene nichts zu tunHipster-Tum ist tabuCommunity, hoffentlich begeht ihr alle SuizidMama hat gesagt ich darf mit keinem von euch Freunde seinDie ganze Heuchelei, vergeude Zeit, es bleibt ein TeufelskreisWas ist los, du Hurensohn? Dachtest, ich bin brav geworden?Nimm dein Kopf und steck ihn ganz tief in den Arsch der OrsonsYeah, ich bin viel zu lange still gebliebenUnd hab mir angeschaut wie all die Spasten Filme schiebenDeutschland ist so ungenießbar, C-Promis im DschungelfieberDoch ich brech' dem ganzen Ungeziefer jetzt den UnterkieferYeah, Kay und seine Schwuchtelfreunde fressen ScheißeDarf euch zwar nicht essen, doch ich schlachte euch, ihr fetten Schweine[Hook]Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die LobbyMerkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißtGuten Tag, ihr scheiß Bullen, sagt goodbyeNutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die LobbyMerkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißtGuten Tag, ihr scheiß Bullen, sagt goodbye</t>
+          <t>[Hook]
+Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die Lobby
+Merkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißt
+Guten Tag, ihr scheiß Bullen, sagt goodbye
+Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die Lobby
+Merkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißt
+Guten Tag, ihr scheiß Bullen, sagt goodbye
+[Part 1]
+Der Knight Rider, Nutte,ich bin leicht reizbar
+Fick die Presse,alles Pickelfressen - Schweinsteiger
+Multikriminell, die Bullen riechen Geld
+Fasst du mich noch einmal an, werd' ich zu Wolverine, du Kelb
+Mit mir kann man keine Späßchen machen, kann man keine Pferde stehlen
+„Der mit dem“ und „Wer verkehrt mit wem?“ kann ich nicht ernst nehmen
+Halt die Fresse, setz dich hin und zeig Respekt
+Ich bin immer noch der King in meinem Geschäft
+Sonny Black ist der Boss und daran wird sich nichts ändern
+Du hängst an den Eiern, ich mit Bänkern
+Was glotzt du meinen Benz an?
+Der Hurensohn von Stern macht auf Enthüllungsjournalist
+Doch ich hole aus und box' ihm seine Brille ins Gesicht
+[Hook]
+Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die Lobby
+Merkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißt
+Guten Tag, ihr scheiß Bullen, sagt goodbye
+Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die Lobby
+Merkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißt
+Guten Tag, ihr scheiß Bullen, sagt goodbye
+[Part 2]
+Ich hab mit dieser Szene nichts zu tunHipster-Tum ist tabu
+Community, hoffentlich begeht ihr alle Suizid
+Mama hat gesagt ich darf mit keinem von euch Freunde sein
+Die ganze Heuchelei, vergeude Zeit, es bleibt ein Teufelskreis
+Was ist los, du Hurensohn? Dachtest, ich bin brav geworden?Nimm dein Kopf und steck ihn ganz tief in den Arsch der Orsons
+Yeah, ich bin viel zu lange still geblieben
+Und hab mir angeschaut wie all die Spasten Filme schieben
+Deutschland ist so ungenießbar, C-Promis im DschungelfieberDoch ich brech' dem ganzen Ungeziefer jetzt den Unterkiefer
+Yeah, Kay und seine Schwuchtelfreunde fressen ScheißeDarf euch zwar nicht essen, doch ich schlachte euch, ihr fetten Schweine
+[Hook]
+Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die Lobby
+Merkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißt
+Guten Tag, ihr scheiß Bullen, sagt goodbye
+Nutte, nenn mich Sonny, Pöbeln ist mein HobbyWenn ihr keine Suite habt, zerstöre ich die Lobby
+Merkst du, wie mein Puls rasend steigt? Der Geduldsfaden reißt
+Guten Tag, ihr scheiß Bullen, sagt goodbye</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1375,10 +2363,429 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Geordnet nach gedissten Personen(von 50 Cent bis Y-TITTY)50 CentNie ein Rapper IIAlicia KeysAMGBastian SchweinsteigerSonnyBerliner KurierMitten in der NachtBILDMitten in der NachtSturmmaske
-Bill Kaulitz - Tokio HotelSturmmaskeBruce DarnellHaifischBZMitten in der NachtChristian von StettenCrackdealer SoundCulcha CandelaFotzenDer SternOsama FlowSonny
-Die GrünenTausend GründeDie OrsonsSonnyDieter BohlenPolizeigriffSonnyDSDSMitten in der NachtEmoryBaseballschlägerMesserstecherei (Diss #1)Messerstecherei (Diss #2)SturmmaskeTausend Gründe
-FlerMitten in der NachtFreundeskreisGangsta Rap KingsGeorgina FleurMesserstechereiPolizeigriffSonnyGuido WesterwelleBaseballschlägerHarry PotterBaseballschlägerHeinoTausend GründeJuliensblogPolizeigriffJürgen KloppHaifischSporttascheJustin BieberFotzenJustin TimberlakeMitten in der NachtKäpt'n IgloJeder meiner FreundeKay OneAMGBaseballschlägerBlei-Patronen (Diss #1)Blei-Patronen (Diss #2)Blei-Patronen (Diss #3)Blei-Patronen (Diss #4)HaifischMesserstecherei (Diss #1)Messerstecherei (Diss #2)Messerstecherei (Diss #3)Mitten in der Nacht (Diss #1)Mitten in der Nacht (Diss #2)Mitten in der Nacht (Diss #3)Mitten in der Nacht (Diss #4)PolizeigriffSonny (Diss #1)Sonny (Diss #2)Sturmmaske (Diss #1)Sturmmaske (Diss #2)Sturmmaske (Diss #3)Tausend Gründe (Diss #1)Tausend Gründe (Diss #2)Klaus WowereitOsama FlowLena Meyer-LandrutBlei-PatronenMarkus LanzPolizeigriffMateo JaschikFotzenPolizeigriffMC FittiMesserstechereiMiss PlatnumGangsta Rap KingsMoshammerOsama Flow (Diss #1)Osama Flow (Diss #2)MüllerHaifischMundstuhlSturmmaskeNazan EckesGangsta Rap KingsMitten in der NachtSonnyOliver PocherMesserstechereiPolizeigriff (Diss #1)Polizeigriff (Diss #2)Olivia JonesPolizeigriffOliwoodBlei-Patronen (Diss #1)Blei-Patronen (Diss #2)Mitten in der NachtPolizeigriffPaul KalkbrennerSturmmaskePrinz Markus von AnhaltBaseballschlägerMitten in der Nacht (Diss #1)Mitten in der Nacht (Diss #2)Mitten in der Nacht (Diss #3)Psaiko.DinoFotzenRosenstolzBaseballschlägerRTLMitten in der NachtSonnySporttascheRudolph MoshammerOsama FlowSamy DeluxeOsama FlowPolizeigriff (Diss #1)Polizeigriff (Diss #2)Tausend GründeSandra MaischbergerOsama FlowSchwester SSturmmaskeSteffen HallaschkaSonnySternOsama FlowSonnySwizz BeatzAMGSylvie van der VaartGangsta Rap KingsThilo SarrazinOsama FlowUngespieltTausend GründeVolker BeckJohn WayneWitten UntouchableTausend GründeY-TITTYFotzenGeordnet nach Tracks (alphabetisch)(von AMG bis Tausend Gründe)AMGAlicia KeysKay OneSwizz BeatzBaseballschlägerEmoryGuido WesterwelleHarry PotterKay OnePrinz Markus von AnhaltRosenstolzBlei-PatronenKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)Kay One (Diss #4)Lena Meyer-LandrutOliwood (Diss #1)Oliwood (Diss #2)Crackdealer SoundChristian von StettenFotzenCulcha CandelaJustin BieberMateo JaschikPsaiko.DinoY-TITTYGangsta Rap KingsFreundeskreisMiss PlatnumNazan EckesSylvie van der VaartHaifischBruce DarnellJürgen KloppKay OneMüllerJeder meiner FreundeKäpt'n IgloJohn WayneVolker BeckMesserstechereiEmory (Diss #1)Emory (Diss #2)Georgina FleurKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)MC FittiOliver PocherMitten in der NachtBerliner KurierBILDBZDSDSFlerJustin TimberlakeKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)Kay One (Diss #4)Nazan EckesOliwoodPrinz Markus von Anhalt (Diss #1)Prinz Markus von Anhalt (Diss #2)Prinz Markus von Anhalt (Diss #2)RTLNie ein Rapper II50 CentOsama FlowDer SternKlaus WowereitRudolph Moshammer (Diss #1)Rudolph Moshammer (Diss #2)Samy DeluxeSandra MaischbergerSternThilo SarrazinPolizeigriffDieter BohlenGeorgina FleurJuliensblogKay OneMarkus LanzMateo JaschikOliver Pocher (Diss #1)Oliver Pocher (Diss #2)Olivia JonesOliwoodSamy Deluxe (Diss #1)Samy Deluxe (Diss #2)SonnyBastian SchweinsteigerDer SternDie OrsonsDieter BohlenGeorgina FleurKay One (Diss #1)Kay One (Diss #2)Nazan EckesRTLSteffen HallaschkaSternSporttascheJürgen KloppRTLSturmmaskeBILDBill Kaulitz - Tokio HotelEmoryKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)MundstuhlPaul KalkbrennerSchwester STausend GründeDie GrünenEmoryHeinoKay One (Diss #1)Kay One (Diss #2)Samy DeluxeUngespieltWitten UntouchableGeordnet nach der Tracklist(von Fotzen bis Sonny)01 FotzenCulcha CandelaJustin BieberMateo JaschikPsaiko.DinoY-TITTY02 Jeder meiner FreundeKäpt'n Iglo03 HaifischBruce DarnellJürgen KloppKay OneMüller04 Mitten in der NachtBerliner KurierBILDBZDSDSFlerJustin TimberlakeKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)Kay One (Diss #4)Nazan EckesOliwoodPrinz Markus von Anhalt (Diss #1)Prinz Markus von Anhalt (Diss #2)Prinz Markus von Anhalt (Diss #2)RTL05 Crackdealer SoundChristian von Stetten06 SporttascheJürgen KloppRTL07 Osama FlowDer SternKlaus WowereitRudolph Moshammer (Diss #1)Rudolph Moshammer (Diss #2)Samy DeluxeSandra MaischbergerSternThilo Sarrazin08 Gangsta Rap KingsFreundeskreisMiss PlatnumNazan EckesSylvie van der Vaart09 MesserstechereiEmory (Diss #1)Emory (Diss #2)Georgina FleurKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)MC FittiOliver Pocher10 Blei-PatronenKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)Kay One (Diss #4)Lena Meyer-LandrutOliwood (Diss #1)Oliwood (Diss #2)11 John WayneVolker Beck12 Tausend GründeDie GrünenEmoryHeinoKay One (Diss #1)Kay One (Diss #2)Samy DeluxeUngespieltWitten Untouchable13 BaseballschlägerEmoryGuido WesterwelleHarry PotterKay OnePrinz Markus von AnhaltRosenstolz14 AMGAlicia KeysKay OneSwizz Beatz15 Nie ein Rapper II50 Cent16 PolizeigriffDieter BohlenGeorgina FleurJuliensblogKay OneMarkus LanzMateo JaschikOliver Pocher (Diss #1)Oliver Pocher (Diss #2)Olivia JonesOliwoodSamy Deluxe (Diss #1)Samy Deluxe (Diss #2)17 SturmmaskeBILDBill Kaulitz - Tokio HotelEmoryKay One (Diss #1)Kay One (Diss #2)Kay One (Diss #3)MundstuhlPaul KalkbrennerSchwester S18 SonnyBastian SchweinsteigerDer SternDie OrsonsDieter BohlenGeorgina FleurKay One (Diss #1)Kay One (Diss #2)Nazan EckesRTLSteffen HallaschkaStern</t>
+          <t>Geordnet nach gedissten Personen
+(von50 CentbisY-TITTY)
+50 Cent
+Nie ein Rapper II
+Alicia Keys
+AMG
+Bastian Schweinsteiger
+Sonny
+Berliner Kurier
+Mitten in der Nacht
+BILD
+Mitten in der Nacht
+Sturmmaske
+Bill Kaulitz - Tokio Hotel
+Sturmmaske
+Bruce Darnell
+Haifisch
+BZ
+Mitten in der Nacht
+Christian von Stetten
+Crackdealer Sound
+Culcha Candela
+Fotzen
+Der Stern
+Osama Flow
+Sonny
+Die Grünen
+Tausend Gründe
+Die Orsons
+Sonny
+Dieter Bohlen
+Polizeigriff
+Sonny
+DSDS
+Mitten in der Nacht
+Emory
+Baseballschläger
+Messerstecherei (Diss #1)
+Messerstecherei (Diss #2)
+Sturmmaske
+Tausend Gründe
+Fler
+Mitten in der Nacht
+Freundeskreis
+Gangsta Rap Kings
+Georgina Fleur
+Messerstecherei
+Polizeigriff
+Sonny
+Guido Westerwelle
+Baseballschläger
+Harry Potter
+Baseballschläger
+Heino
+Tausend Gründe
+Juliensblog
+Polizeigriff
+Jürgen Klopp
+Haifisch
+Sporttasche
+Justin Bieber
+Fotzen
+Justin Timberlake
+Mitten in der Nacht
+Käpt'n Iglo
+Jeder meiner Freunde
+Kay One
+AMG
+Baseballschläger
+Blei-Patronen (Diss #1)
+Blei-Patronen (Diss #2)
+Blei-Patronen (Diss #3)
+Blei-Patronen (Diss #4)
+Haifisch
+Messerstecherei (Diss #1)
+Messerstecherei (Diss #2)
+Messerstecherei (Diss #3)
+Mitten in der Nacht (Diss #1)
+Mitten in der Nacht (Diss #2)
+Mitten in der Nacht (Diss #3)
+Mitten in der Nacht (Diss #4)
+Polizeigriff
+Sonny (Diss #1)
+Sonny (Diss #2)
+Sturmmaske (Diss #1)
+Sturmmaske (Diss #2)
+Sturmmaske (Diss #3)
+Tausend Gründe (Diss #1)
+Tausend Gründe (Diss #2)
+Klaus Wowereit
+Osama Flow
+Lena Meyer-Landrut
+Blei-Patronen
+Markus Lanz
+Polizeigriff
+Mateo Jaschik
+Fotzen
+Polizeigriff
+MC Fitti
+Messerstecherei
+Miss Platnum
+Gangsta Rap Kings
+Moshammer
+Osama Flow (Diss #1)
+Osama Flow (Diss #2)
+Müller
+Haifisch
+Mundstuhl
+Sturmmaske
+Nazan Eckes
+Gangsta Rap Kings
+Mitten in der Nacht
+Sonny
+Oliver Pocher
+Messerstecherei
+Polizeigriff (Diss #1)
+Polizeigriff (Diss #2)
+Olivia Jones
+Polizeigriff
+Oliwood
+Blei-Patronen (Diss #1)
+Blei-Patronen (Diss #2)
+Mitten in der Nacht
+Polizeigriff
+Paul Kalkbrenner
+Sturmmaske
+Prinz Markus von Anhalt
+Baseballschläger
+Mitten in der Nacht (Diss #1)
+Mitten in der Nacht (Diss #2)
+Mitten in der Nacht (Diss #3)
+Psaiko.Dino
+Fotzen
+Rosenstolz
+Baseballschläger
+RTL
+Mitten in der Nacht
+Sonny
+Sporttasche
+Rudolph Moshammer
+Osama Flow
+Samy Deluxe
+Osama Flow
+Polizeigriff (Diss #1)
+Polizeigriff (Diss #2)
+Tausend Gründe
+Sandra Maischberger
+Osama Flow
+Schwester S
+Sturmmaske
+Steffen Hallaschka
+Sonny
+Stern
+Osama Flow
+Sonny
+Swizz Beatz
+AMG
+Sylvie van der Vaart
+Gangsta Rap Kings
+Thilo Sarrazin
+Osama Flow
+Ungespielt
+Tausend Gründe
+Volker Beck
+John Wayne
+Witten Untouchable
+Tausend Gründe
+Y-TITTY
+Fotzen
+Geordnet nach Tracks (alphabetisch)
+(von AMG bis Tausend Gründe)
+AMG
+Alicia Keys
+Kay One
+Swizz Beatz
+Baseballschläger
+Emory
+Guido Westerwelle
+Harry Potter
+Kay One
+Prinz Markus von Anhalt
+Rosenstolz
+Blei-Patronen
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+Kay One (Diss #4)
+Lena Meyer-Landrut
+Oliwood (Diss #1)
+Oliwood (Diss #2)
+Crackdealer Sound
+Christian von Stetten
+Fotzen
+Culcha Candela
+Justin Bieber
+Mateo Jaschik
+Psaiko.Dino
+Y-TITTY
+Gangsta Rap Kings
+Freundeskreis
+Miss Platnum
+Nazan Eckes
+Sylvie van der Vaart
+Haifisch
+Bruce Darnell
+Jürgen Klopp
+Kay One
+Müller
+Jeder meiner Freunde
+Käpt'n Iglo
+John Wayne
+Volker Beck
+Messerstecherei
+Emory (Diss #1)
+Emory (Diss #2)
+Georgina Fleur
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+MC Fitti
+Oliver Pocher
+Mitten in der Nacht
+Berliner Kurier
+BILD
+BZ
+DSDS
+Fler
+Justin Timberlake
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+Kay One (Diss #4)
+Nazan Eckes
+Oliwood
+Prinz Markus von Anhalt (Diss #1)
+Prinz Markus von Anhalt (Diss #2)
+Prinz Markus von Anhalt (Diss #2)
+RTL
+Nie ein Rapper II
+50 Cent
+Osama Flow
+Der Stern
+Klaus Wowereit
+Rudolph Moshammer (Diss #1)
+Rudolph Moshammer (Diss #2)
+Samy Deluxe
+Sandra Maischberger
+Stern
+Thilo Sarrazin
+Polizeigriff
+Dieter Bohlen
+Georgina Fleur
+Juliensblog
+Kay One
+Markus Lanz
+Mateo Jaschik
+Oliver Pocher (Diss #1)
+Oliver Pocher (Diss #2)
+Olivia Jones
+Oliwood
+Samy Deluxe (Diss #1)
+Samy Deluxe (Diss #2)
+Sonny
+Bastian Schweinsteiger
+Der Stern
+Die Orsons
+Dieter Bohlen
+Georgina Fleur
+Kay One (Diss #1)
+Kay One (Diss #2)
+Nazan Eckes
+RTL
+Steffen Hallaschka
+Stern
+Sporttasche
+Jürgen Klopp
+RTL
+Sturmmaske
+BILD
+Bill Kaulitz - Tokio Hotel
+Emory
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+Mundstuhl
+Paul Kalkbrenner
+Schwester S
+Tausend Gründe
+Die Grünen
+Emory
+Heino
+Kay One (Diss #1)
+Kay One (Diss #2)
+Samy Deluxe
+Ungespielt
+Witten Untouchable
+Geordnet nach der Tracklist
+(von Fotzen bis Sonny)
+01 Fotzen
+Culcha Candela
+Justin Bieber
+Mateo Jaschik
+Psaiko.Dino
+Y-TITTY
+02 Jeder meiner Freunde
+Käpt'n Iglo
+03 Haifisch
+Bruce Darnell
+Jürgen Klopp
+Kay One
+Müller
+04 Mitten in der Nacht
+Berliner Kurier
+BILD
+BZ
+DSDS
+Fler
+Justin Timberlake
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+Kay One (Diss #4)
+Nazan Eckes
+Oliwood
+Prinz Markus von Anhalt (Diss #1)
+Prinz Markus von Anhalt (Diss #2)
+Prinz Markus von Anhalt (Diss #2)
+RTL
+05 Crackdealer Sound
+Christian von Stetten
+06 Sporttasche
+Jürgen Klopp
+RTL
+07 Osama Flow
+Der Stern
+Klaus Wowereit
+Rudolph Moshammer (Diss #1)
+Rudolph Moshammer (Diss #2)
+Samy Deluxe
+Sandra Maischberger
+Stern
+Thilo Sarrazin
+08 Gangsta Rap Kings
+Freundeskreis
+Miss Platnum
+Nazan Eckes
+Sylvie van der Vaart
+09 Messerstecherei
+Emory (Diss #1)
+Emory (Diss #2)
+Georgina Fleur
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+MC Fitti
+Oliver Pocher
+10 Blei-Patronen
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+Kay One (Diss #4)
+Lena Meyer-Landrut
+Oliwood (Diss #1)
+Oliwood (Diss #2)
+11 John Wayne
+Volker Beck
+12 Tausend Gründe
+Die Grünen
+Emory
+Heino
+Kay One (Diss #1)
+Kay One (Diss #2)
+Samy Deluxe
+Ungespielt
+Witten Untouchable
+13 Baseballschläger
+Emory
+Guido Westerwelle
+Harry Potter
+Kay One
+Prinz Markus von Anhalt
+Rosenstolz
+14 AMG
+Alicia Keys
+Kay One
+Swizz Beatz
+15 Nie ein Rapper II
+50 Cent
+16 Polizeigriff
+Dieter Bohlen
+Georgina Fleur
+Juliensblog
+Kay One
+Markus Lanz
+Mateo Jaschik
+Oliver Pocher (Diss #1)
+Oliver Pocher (Diss #2)
+Olivia Jones
+Oliwood
+Samy Deluxe (Diss #1)
+Samy Deluxe (Diss #2)
+17 Sturmmaske
+BILD
+Bill Kaulitz - Tokio Hotel
+Emory
+Kay One (Diss #1)
+Kay One (Diss #2)
+Kay One (Diss #3)
+Mundstuhl
+Paul Kalkbrenner
+Schwester S
+18 Sonny
+Bastian Schweinsteiger
+Der Stern
+Die Orsons
+Dieter Bohlen
+Georgina Fleur
+Kay One (Diss #1)
+Kay One (Diss #2)
+Nazan Eckes
+RTL
+Steffen Hallaschka
+Stern</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
